--- a/outputs/ML_Results/dist_commute/Germany_other.xlsx
+++ b/outputs/ML_Results/dist_commute/Germany_other.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ59709076" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ00390940" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ01058665" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ01704018" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ02302352" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ02950631" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ03561454" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ04178636" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ04846167" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ05602793" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ06187620" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ06825017" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ07435972" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ08023952" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ08598360" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ09181563" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ09756287" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ10360341" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_commute/Germany_other.xlsx
+++ b/outputs/ML_Results/dist_commute/Germany_other.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ05602793" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ06187620" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ06825017" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ07435972" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ08023952" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ08598360" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ09181563" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ09756287" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ10360341" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ01915732" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ02338633" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ02762897" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ03187368" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ03606388" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ04035416" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ04463257" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ04885876" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ05309307" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,205 +466,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11402.73695367548</v>
+        <v>10398.01946880937</v>
       </c>
       <c r="C2" t="n">
-        <v>2.427085423930785e-18</v>
+        <v>1.30695209602938e-16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-827.2277512296228</v>
+        <v>-1045.132703127273</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09093603463737061</v>
+        <v>0.1508884882558032</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-557.6091038158224</v>
+        <v>-494.9399377289824</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2383167393568722</v>
+        <v>0.3401898598283335</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1728.065915109885</v>
+        <v>305.2958452869697</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04195493686965945</v>
+        <v>0.1500772738722085</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.387801623363984</v>
+        <v>157.2886911173372</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9139197466039548</v>
+        <v>0.509814296429977</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1254.134808098783</v>
+        <v>68.64447690557677</v>
       </c>
       <c r="C7" t="n">
-        <v>1.249661343116938e-12</v>
+        <v>0.7956362191271196</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-31.63714566768854</v>
+        <v>-24.58978042899562</v>
       </c>
       <c r="C8" t="n">
-        <v>8.505796421446739e-05</v>
+        <v>0.9195715603869197</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>214.3607344458204</v>
+        <v>23.41372636284801</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002181492377266224</v>
+        <v>0.764439550957317</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>478.3773555152772</v>
+        <v>-1299.068601622856</v>
       </c>
       <c r="C10" t="n">
-        <v>5.577228696597928e-26</v>
+        <v>3.691761569539883e-13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.242248947263175</v>
+        <v>-36.15956791085911</v>
       </c>
       <c r="C11" t="n">
-        <v>2.094003636455243e-07</v>
+        <v>9.56547715537934e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.606287668218906e-05</v>
+        <v>123.57917693108</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03442860189348339</v>
+        <v>0.08729331195216064</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-20.24590358823975</v>
+        <v>445.6447234194399</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07383971878040886</v>
+        <v>7.284864067483912e-22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.853700059699714</v>
+        <v>0.2474137949896548</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6577344712838945</v>
+        <v>5.632738621316729e-07</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2941.95235944705</v>
+        <v>-1.872916308578368e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0009964287607099492</v>
+        <v>0.7088874535549941</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4079.461385118601</v>
+        <v>-16.06323385711648</v>
       </c>
       <c r="C16" t="n">
-        <v>8.790887876087459e-05</v>
+        <v>0.1631258957437654</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-4.79668238933245</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4628152005370108</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-2587.549568256127</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.008248797858314609</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-4507.231274343004</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.580565022095696e-05</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-1820.159987975902</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.04925459330740492</v>
+      <c r="B20" t="n">
+        <v>-2714.658353727866</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.004085408283556886</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,205 +749,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11290.86479552116</v>
+        <v>10444.21142188087</v>
       </c>
       <c r="C2" t="n">
-        <v>5.007820466933518e-18</v>
+        <v>4.822518167303765e-17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-578.7209780895862</v>
+        <v>-719.5466126542178</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2399210048367248</v>
+        <v>0.3063691472901702</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-308.5578949880643</v>
+        <v>-525.0776436186256</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5172655751382934</v>
+        <v>0.3086759477092249</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1978.90696301603</v>
+        <v>124.8560547034597</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02619538134276173</v>
+        <v>0.5490530445787883</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58.32227888869524</v>
+        <v>208.8600406633853</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4519367975405707</v>
+        <v>0.3753566022281607</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1312.222367931338</v>
+        <v>70.13014672876125</v>
       </c>
       <c r="C7" t="n">
-        <v>1.153321930715693e-13</v>
+        <v>0.7875169878203055</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-29.34793932669186</v>
+        <v>117.0468272430021</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002646685042905676</v>
+        <v>0.6252280349627561</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>184.8019728935747</v>
+        <v>-82.63098097843444</v>
       </c>
       <c r="C9" t="n">
-        <v>0.007823309059471548</v>
+        <v>0.2863366974660128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>483.5074546219017</v>
+        <v>-1409.69411728383</v>
       </c>
       <c r="C10" t="n">
-        <v>1.843459662264375e-26</v>
+        <v>1.158143258193863e-15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1936564885875549</v>
+        <v>-34.83124190715679</v>
       </c>
       <c r="C11" t="n">
-        <v>2.132431003897453e-05</v>
+        <v>1.722294230948853e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.668356016540111e-05</v>
+        <v>174.9536172388516</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2460574250723912</v>
+        <v>0.01345417647782915</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-12.27920781198583</v>
+        <v>466.7628948938013</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2801883078452149</v>
+        <v>4.761395599500026e-24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.131549684948826</v>
+        <v>0.2393026616569759</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7402546446487656</v>
+        <v>1.028104402358762e-06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2848.036361712039</v>
+        <v>-2.857259727164271e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001237822845768042</v>
+        <v>0.5666396382673846</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3650.237520456409</v>
+        <v>-16.08492035231285</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0004311314027407498</v>
+        <v>0.1577884485218985</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-5.562138912611395</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3901657583496838</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-2200.920440499369</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.02273299904590278</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-4468.37269297078</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.404658930003881e-05</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-2577.2798557068</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.005478750122622832</v>
+      <c r="B20" t="n">
+        <v>-1786.512433714448</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.05426654012626675</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +1000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,205 +1032,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11268.4410178579</v>
+        <v>9467.170449211651</v>
       </c>
       <c r="C2" t="n">
-        <v>9.084992423038119e-18</v>
+        <v>4.607689550396915e-14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-229.1774531153696</v>
+        <v>-963.452958102969</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6464135118882228</v>
+        <v>0.1721592989484941</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.13721389783666</v>
+        <v>-331.181802342533</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8896069550254928</v>
+        <v>0.5268217727039048</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1247.099202716978</v>
+        <v>99.39806553202314</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1498640879814923</v>
+        <v>0.6369428750807049</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17.21665397568866</v>
+        <v>-16.01888578118277</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8243093745422297</v>
+        <v>0.9460898891632147</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1294.471422210591</v>
+        <v>40.9025679748238</v>
       </c>
       <c r="C7" t="n">
-        <v>2.893467006010905e-13</v>
+        <v>0.8763509582016411</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-36.15712270831146</v>
+        <v>-106.6981255856914</v>
       </c>
       <c r="C8" t="n">
-        <v>6.760427068145537e-06</v>
+        <v>0.6587996696984617</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>154.7810994303746</v>
+        <v>11.53322248810488</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02688340923767328</v>
+        <v>0.8821388773666803</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>490.14586725315</v>
+        <v>-1462.064005120129</v>
       </c>
       <c r="C10" t="n">
-        <v>7.343757257326614e-27</v>
+        <v>1.833341706401597e-16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2391208178597431</v>
+        <v>-31.27541288366412</v>
       </c>
       <c r="C11" t="n">
-        <v>1.870524849536281e-07</v>
+        <v>0.0001173218439002899</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.769160130839688e-05</v>
+        <v>168.173878634797</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2303427031485063</v>
+        <v>0.01859288543935691</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-8.666379042275533</v>
+        <v>477.3643812608498</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4479820638817914</v>
+        <v>5.117725552505272e-25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.791322157360232</v>
+        <v>0.2412396871508297</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6673261569740219</v>
+        <v>8.598589421577633e-07</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3305.093130742067</v>
+        <v>-7.268577745080934e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001779841995929489</v>
+        <v>0.139524038047342</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4807.283797154283</v>
+        <v>-7.167211984134099</v>
       </c>
       <c r="C16" t="n">
-        <v>4.123237743021571e-06</v>
+        <v>0.5320783015379509</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.3360827271858211</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9588300360459385</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-1811.448813746517</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.06080702573398558</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-4483.090501720526</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.729900509618252e-05</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-2577.720093868439</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.005344028632331887</v>
+      <c r="B20" t="n">
+        <v>-2639.421047739803</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.00492005620273726</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,205 +1315,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11632.71063137862</v>
+        <v>8813.74534412848</v>
       </c>
       <c r="C2" t="n">
-        <v>1.059162647075914e-18</v>
+        <v>9.804889765098037e-13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-363.0130206723497</v>
+        <v>-1025.339849841451</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4722232135094857</v>
+        <v>0.138571224724135</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-102.1588613577511</v>
+        <v>74.45383747100266</v>
       </c>
       <c r="C4" t="n">
-        <v>0.834403177750466</v>
+        <v>0.8846545339404915</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1263.20367392398</v>
+        <v>256.2666551019606</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1520542574572815</v>
+        <v>0.2197209048193821</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-39.43837444769452</v>
+        <v>161.7483283412157</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6149367460903088</v>
+        <v>0.4899541001671321</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1330.465733586096</v>
+        <v>193.0813382769855</v>
       </c>
       <c r="C7" t="n">
-        <v>8.829382215742694e-14</v>
+        <v>0.459903928626254</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-34.31231077831664</v>
+        <v>124.328869270996</v>
       </c>
       <c r="C8" t="n">
-        <v>2.486827811704376e-05</v>
+        <v>0.6041628761226988</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>185.5603295853088</v>
+        <v>-51.26047855904549</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008352703153145848</v>
+        <v>0.5077263374140619</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>466.6032263579176</v>
+        <v>-1198.299934376261</v>
       </c>
       <c r="C10" t="n">
-        <v>3.350932560944606e-24</v>
+        <v>8.844556888891198e-12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2306988615251953</v>
+        <v>-31.7790964700356</v>
       </c>
       <c r="C11" t="n">
-        <v>5.53266724071007e-07</v>
+        <v>7.327002818398246e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.125226079487922e-05</v>
+        <v>172.5258882886172</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1775922754722193</v>
+        <v>0.01511371376557137</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-17.48364509966438</v>
+        <v>494.3379629243676</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1266012248074656</v>
+        <v>2.791557014968746e-27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.802736221678901</v>
+        <v>0.2453546812044892</v>
       </c>
       <c r="C14" t="n">
-        <v>0.556329768379809</v>
+        <v>4.746375101451948e-07</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2609.356743455141</v>
+        <v>-3.85735387596142e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003512040666905249</v>
+        <v>0.4356016013927282</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4286.70411448183</v>
+        <v>-6.898602509321401</v>
       </c>
       <c r="C16" t="n">
-        <v>4.664490533876321e-05</v>
+        <v>0.5432482959456244</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2.017177849527071</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7531317949290359</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-1944.891385398887</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.04346813108895633</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-4712.99948621638</v>
+      </c>
+      <c r="C19" t="n">
+        <v>7.595377075333155e-06</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-1538.706594037562</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.09895709564103351</v>
+      <c r="B20" t="n">
+        <v>-2712.35178475486</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.003384432357844871</v>
       </c>
     </row>
   </sheetData>
@@ -1410,7 +1566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,205 +1598,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11749.50179835084</v>
+        <v>10396.3915777605</v>
       </c>
       <c r="C2" t="n">
-        <v>4.204774681931448e-19</v>
+        <v>1.459217432336824e-16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-392.9297655442545</v>
+        <v>-1089.053665807334</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4253249259069121</v>
+        <v>0.1340221306980663</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-259.7100656227885</v>
+        <v>-367.0205389167577</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5857631953968635</v>
+        <v>0.4785002909787713</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1231.741157615879</v>
+        <v>106.7385462069975</v>
       </c>
       <c r="C5" t="n">
-        <v>0.162411093961604</v>
+        <v>0.6128647504964055</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6783013800018978</v>
+        <v>55.11739278636242</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9930608020402678</v>
+        <v>0.8172821195731452</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1334.981448280887</v>
+        <v>170.608972425292</v>
       </c>
       <c r="C7" t="n">
-        <v>5.834152806854344e-14</v>
+        <v>0.5180877402679986</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-38.03002349886141</v>
+        <v>202.3198235430851</v>
       </c>
       <c r="C8" t="n">
-        <v>2.598230711222238e-06</v>
+        <v>0.408305452939981</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>128.8550912455839</v>
+        <v>0.2162393955948545</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06622947999567043</v>
+        <v>0.9977972916343871</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>466.1083603653857</v>
+        <v>-1270.593794455006</v>
       </c>
       <c r="C10" t="n">
-        <v>4.571816974395699e-24</v>
+        <v>1.108234658055498e-12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2552219517440297</v>
+        <v>-33.17909682395781</v>
       </c>
       <c r="C11" t="n">
-        <v>3.264987000913007e-08</v>
+        <v>5.002213983483593e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.325198738393755e-06</v>
+        <v>151.7128756650255</v>
       </c>
       <c r="C12" t="n">
-        <v>0.802307765899381</v>
+        <v>0.03487387501412191</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-13.33809362590185</v>
+        <v>447.0864627063436</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2464973884213702</v>
+        <v>4.155717520111313e-22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.8882366398980293</v>
+        <v>0.2607775702546402</v>
       </c>
       <c r="C14" t="n">
-        <v>0.890828584645269</v>
+        <v>1.076878097721024e-07</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2871.216762315212</v>
+        <v>-4.207993368552332e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001300694208195493</v>
+        <v>0.3956915223581348</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4923.105695844862</v>
+        <v>-13.28312359612112</v>
       </c>
       <c r="C16" t="n">
-        <v>2.719195698690601e-06</v>
+        <v>0.2501862726268638</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-4.908050426282599</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.453795214154151</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-2493.472114477753</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.01069603032361616</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-5041.591939101645</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.473734615550967e-06</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-2221.71570443139</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.01748360942617868</v>
+      <c r="B20" t="n">
+        <v>-2580.101443274141</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.006606863433552449</v>
       </c>
     </row>
   </sheetData>
@@ -1654,7 +1849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1686,205 +1881,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11077.29053800006</v>
+        <v>9754.324609122401</v>
       </c>
       <c r="C2" t="n">
-        <v>2.939128683537978e-17</v>
+        <v>7.626681678876048e-15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-332.2400177900237</v>
+        <v>-923.5289257557868</v>
       </c>
       <c r="C3" t="n">
-        <v>0.501102748829352</v>
+        <v>0.1910083630950413</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-247.57393665366</v>
+        <v>-458.8070260002032</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6038852511941136</v>
+        <v>0.3946253389980106</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1183.879054494703</v>
+        <v>85.3835226057426</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1787077931877809</v>
+        <v>0.6853585139525574</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17.94383277752118</v>
+        <v>82.83568053811828</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8160503996561455</v>
+        <v>0.7271674701414466</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1303.990616411896</v>
+        <v>230.64098217868</v>
       </c>
       <c r="C7" t="n">
-        <v>1.879351989053903e-13</v>
+        <v>0.3827544446568205</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-32.64306305382174</v>
+        <v>124.0926337473901</v>
       </c>
       <c r="C8" t="n">
-        <v>4.915741377131098e-05</v>
+        <v>0.6087605903797648</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>200.8542727339414</v>
+        <v>-75.12424724953495</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003981679693705212</v>
+        <v>0.3357743563219101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>482.1944994324601</v>
+        <v>-1416.220618807803</v>
       </c>
       <c r="C10" t="n">
-        <v>7.475545870506845e-26</v>
+        <v>1.791459859070511e-15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2060373785987766</v>
+        <v>-34.18045737703427</v>
       </c>
       <c r="C11" t="n">
-        <v>8.89065102085497e-06</v>
+        <v>2.973357167331466e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.006430632769742e-05</v>
+        <v>191.1952728973848</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1917223329731904</v>
+        <v>0.007539386132181636</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-14.72120743513254</v>
+        <v>443.0259040983028</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1961812707201019</v>
+        <v>1.324588281188888e-21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.403366697666901</v>
+        <v>0.2589052724742066</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8293929058579084</v>
+        <v>1.455200341511807e-07</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2606.733507975751</v>
+        <v>-4.152726399340623e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00309549242198797</v>
+        <v>0.4010486855638568</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3713.588381338503</v>
+        <v>-11.44410607331039</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0003974119576759932</v>
+        <v>0.3225790925845244</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.886097079715042</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8913296966424451</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-2448.424185255912</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.01225875735009559</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-4787.613867916582</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8.705273213015521e-06</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-2445.610706025927</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.008222292975496159</v>
+      <c r="B20" t="n">
+        <v>-2140.539316342408</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.02307117752113415</v>
       </c>
     </row>
   </sheetData>
@@ -1898,7 +2132,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1930,205 +2164,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11023.96274950784</v>
+        <v>10064.53090964434</v>
       </c>
       <c r="C2" t="n">
-        <v>6.213381002747468e-17</v>
+        <v>1.055738302061312e-15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-189.354127101346</v>
+        <v>-850.1907707970046</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7040070944479593</v>
+        <v>0.232809393905286</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37.24773951169493</v>
+        <v>-168.1446559777756</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9384033456880722</v>
+        <v>0.7517488123049018</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-899.6923723152058</v>
+        <v>125.837738863302</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3086172308573956</v>
+        <v>0.5500568942606318</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-23.52996257199819</v>
+        <v>68.30973057519859</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7626751998247241</v>
+        <v>0.7730195116803108</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1387.630919854261</v>
+        <v>96.64303459547517</v>
       </c>
       <c r="C7" t="n">
-        <v>6.880481546758126e-15</v>
+        <v>0.7139952894697529</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-26.54640427660317</v>
+        <v>-17.26417937517373</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001068918886542507</v>
+        <v>0.9431752498727424</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>172.1557510377531</v>
+        <v>-45.71288865719649</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01405959572731494</v>
+        <v>0.5607729788952409</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>453.7683321688147</v>
+        <v>-1463.534729625776</v>
       </c>
       <c r="C10" t="n">
-        <v>7.096469668277801e-23</v>
+        <v>1.749138150872497e-16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2171307340132639</v>
+        <v>-29.61164414247959</v>
       </c>
       <c r="C11" t="n">
-        <v>2.634360906425476e-06</v>
+        <v>0.0002844257856386887</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.502925829318498e-05</v>
+        <v>141.4917830395497</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5535177091411072</v>
+        <v>0.0489208833627776</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-14.97411699242756</v>
+        <v>466.0595745123494</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1925731405013869</v>
+        <v>9.280676122566934e-24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.8930617891358497</v>
+        <v>0.2597621910629219</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8907319514125465</v>
+        <v>1.254349711341957e-07</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2863.1278638002</v>
+        <v>-4.522141385853457e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001352141031887534</v>
+        <v>0.3665805881232455</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4204.419426150883</v>
+        <v>-20.28818135802679</v>
       </c>
       <c r="C16" t="n">
-        <v>6.635960356125509e-05</v>
+        <v>0.07470908698368327</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-3.010277951228909</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.64468365490975</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-1583.922873879717</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1061615941359179</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-4292.415462727466</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5.28163057721489e-05</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-1880.346263525702</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.04249045994089794</v>
+      <c r="B20" t="n">
+        <v>-2160.135360072162</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.02154359195217201</v>
       </c>
     </row>
   </sheetData>
@@ -2142,7 +2415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2174,205 +2447,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11599.06422217336</v>
+        <v>10278.18296738493</v>
       </c>
       <c r="C2" t="n">
-        <v>1.03494421811178e-18</v>
+        <v>1.335086246409088e-16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-370.620960737788</v>
+        <v>-943.2009086461004</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4558511855225352</v>
+        <v>0.1999943274746717</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-260.582025605824</v>
+        <v>-358.0029494458009</v>
       </c>
       <c r="C4" t="n">
-        <v>0.587826831494852</v>
+        <v>0.4913331410158251</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1316.139255169953</v>
+        <v>127.8235626281933</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1238771077583849</v>
+        <v>0.5420301122613829</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-56.02814315293392</v>
+        <v>209.8557726546402</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4700209003273667</v>
+        <v>0.3747797685093045</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1344.211323511014</v>
+        <v>178.2744178982912</v>
       </c>
       <c r="C7" t="n">
-        <v>3.84578669952021e-14</v>
+        <v>0.4978892366830459</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-34.39711371166291</v>
+        <v>74.56776098545464</v>
       </c>
       <c r="C8" t="n">
-        <v>1.80793354129809e-05</v>
+        <v>0.7575546235762382</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>184.6094389464553</v>
+        <v>-8.147989668313343</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008130514967454563</v>
+        <v>0.9167933108106238</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>468.0613846725211</v>
+        <v>-1248.239694416964</v>
       </c>
       <c r="C10" t="n">
-        <v>1.723794441164606e-24</v>
+        <v>1.882585370965982e-12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2221641965472752</v>
+        <v>-33.92732631496707</v>
       </c>
       <c r="C11" t="n">
-        <v>1.331760544685093e-06</v>
+        <v>2.912731626653131e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.841789732169122e-05</v>
+        <v>172.3753170548331</v>
       </c>
       <c r="C12" t="n">
-        <v>0.426838794655573</v>
+        <v>0.01638682115300528</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-23.37671528894105</v>
+        <v>457.0376518361109</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04090248751990935</v>
+        <v>3.599725937354535e-23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01797531756791004</v>
+        <v>0.2378202288614114</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9977865243196173</v>
+        <v>1.13718236409204e-06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2467.62909713021</v>
+        <v>-5.809716060134763e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.005289342940620658</v>
+        <v>0.2466739771090379</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3971.994212880477</v>
+        <v>-19.96341104864617</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0001566416167840916</v>
+        <v>0.08008613316182635</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-5.725588467264703</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3741062375245823</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-1720.326061480557</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0801277745529861</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-3971.650290508774</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0001924832008721574</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-1424.947438017629</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1241235737938826</v>
+      <c r="B20" t="n">
+        <v>-1729.359994331842</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.06477252596277923</v>
       </c>
     </row>
   </sheetData>
@@ -2386,7 +2698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2418,205 +2730,244 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11785.70587904365</v>
+        <v>10269.26754854226</v>
       </c>
       <c r="C2" t="n">
-        <v>4.799295385865331e-19</v>
+        <v>9.063124959098754e-17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-672.5506165413692</v>
+        <v>-627.675181810715</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1786470837497442</v>
+        <v>0.3805154763892319</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-282.4402757050906</v>
+        <v>-137.4742165221067</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5596398153842459</v>
+        <v>0.7868999580524596</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1658.232599957331</v>
+        <v>98.75046208077643</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06275676666277151</v>
+        <v>0.6365408704053424</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-44.13553788607599</v>
+        <v>212.5164018812644</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5735710105278538</v>
+        <v>0.3662212806663077</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Summer]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1365.372375825023</v>
+        <v>186.4952010979754</v>
       </c>
       <c r="C7" t="n">
-        <v>1.531814570424754e-14</v>
+        <v>0.474910914849288</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-34.92216531238785</v>
+        <v>36.15410414967462</v>
       </c>
       <c r="C8" t="n">
-        <v>1.615427182044096e-05</v>
+        <v>0.8802623403015692</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>200.7931207895947</v>
+        <v>-14.18150196902678</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004378101863458663</v>
+        <v>0.8545477689215202</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>470.6620251548429</v>
+        <v>-1341.386749844844</v>
       </c>
       <c r="C10" t="n">
-        <v>4.231796106309034e-25</v>
+        <v>2.728763131370054e-14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.176500932666846</v>
+        <v>-31.68560031836427</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001272782901058679</v>
+        <v>7.440430565857118e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.042080275768002e-05</v>
+        <v>143.0313593438293</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1095461312872819</v>
+        <v>0.04337855050981576</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-17.39229172144297</v>
+        <v>484.8874867326571</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1265610356415262</v>
+        <v>3.297673453595383e-26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.647247385285358</v>
+        <v>0.2460034043122973</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7996811068811608</v>
+        <v>4.349362103093513e-07</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2986.666187452517</v>
+        <v>-5.21301328867092e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0008575342204690187</v>
+        <v>0.2906011554875818</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3539.587064143257</v>
+        <v>-17.77607710762336</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0007242805689600654</v>
+        <v>0.1162241095417455</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>street_length_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-5.796191239422492</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3669910978851448</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-2093.859071661172</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.03108356514150863</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-4391.104577790455</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.394968391079019e-05</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-2381.546197878457</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.01098830651069586</v>
+      <c r="B20" t="n">
+        <v>-2399.673318082588</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0103139855761369</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Germany_other.xlsx
+++ b/outputs/ML_Results/dist_commute/Germany_other.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ01915732" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ02338633" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ02762897" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ03187368" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ03606388" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ04035416" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ04463257" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ04885876" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ05309307" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ57338166" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ57748283" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ58229681" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ58748508" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ59311285" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ59858130" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ00425709" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ00933101" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ01446852" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10398.01946880937</v>
+        <v>9906.54288309394</v>
       </c>
       <c r="C2" t="n">
-        <v>1.30695209602938e-16</v>
+        <v>1.800380683246211e-15</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1045.132703127273</v>
+        <v>-1031.213237402815</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1508884882558032</v>
+        <v>0.1565465266498265</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-494.9399377289824</v>
+        <v>-501.7252305353898</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3401898598283335</v>
+        <v>0.3337839314360908</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>305.2958452869697</v>
+        <v>264.6610658113797</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1500772738722085</v>
+        <v>0.2112866245778373</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.2886911173372</v>
+        <v>132.1766929505734</v>
       </c>
       <c r="C6" t="n">
-        <v>0.509814296429977</v>
+        <v>0.579535029560079</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>68.64447690557677</v>
+        <v>42.17772245926076</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7956362191271196</v>
+        <v>0.8735298866443663</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-24.58978042899562</v>
+        <v>-39.71145313775801</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9195715603869197</v>
+        <v>0.8704822724988371</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23.41372636284801</v>
+        <v>17.28323433600566</v>
       </c>
       <c r="C9" t="n">
-        <v>0.764439550957317</v>
+        <v>0.8249385545871765</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1299.068601622856</v>
+        <v>-1289.309234329043</v>
       </c>
       <c r="C10" t="n">
-        <v>3.691761569539883e-13</v>
+        <v>5.569666296341531e-13</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-36.15956791085911</v>
+        <v>-35.42839637265212</v>
       </c>
       <c r="C11" t="n">
-        <v>9.56547715537934e-06</v>
+        <v>1.438772577683192e-05</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>123.57917693108</v>
+        <v>175.293511247277</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08729331195216064</v>
+        <v>0.01230700331675299</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>445.6447234194399</v>
+        <v>453.5547601998289</v>
       </c>
       <c r="C13" t="n">
-        <v>7.284864067483912e-22</v>
+        <v>1.20621213945493e-22</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2474137949896548</v>
+        <v>0.2236423132203778</v>
       </c>
       <c r="C14" t="n">
-        <v>5.632738621316729e-07</v>
+        <v>4.512662846812229e-06</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.872916308578368e-05</v>
+        <v>2.685831699777234e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7088874535549941</v>
+        <v>0.9568383093336469</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-16.06323385711648</v>
+        <v>-22.29551922430231</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1631258957437654</v>
+        <v>0.04881426408264395</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4.79668238933245</v>
+        <v>-3.338786103322133</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4628152005370108</v>
+        <v>0.6083524194282345</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2587.549568256127</v>
+        <v>-2733.349492082581</v>
       </c>
       <c r="C18" t="n">
-        <v>0.008248797858314609</v>
+        <v>0.005218353126404175</v>
       </c>
     </row>
     <row r="19">
@@ -687,23 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-4507.231274343004</v>
+        <v>-3870.506354889485</v>
       </c>
       <c r="C19" t="n">
-        <v>2.580565022095696e-05</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-2714.658353727866</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.004085408283556886</v>
+        <v>0.0002222431746986263</v>
       </c>
     </row>
   </sheetData>
@@ -717,7 +704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10444.21142188087</v>
+        <v>10107.29081152513</v>
       </c>
       <c r="C2" t="n">
-        <v>4.822518167303765e-17</v>
+        <v>2.372339833086613e-16</v>
       </c>
     </row>
     <row r="3">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-719.5466126542178</v>
+        <v>-712.1665564532349</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3063691472901702</v>
+        <v>0.3114156671322352</v>
       </c>
     </row>
     <row r="4">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-525.0776436186256</v>
+        <v>-527.0858010042947</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3086759477092249</v>
+        <v>0.306894824382467</v>
       </c>
     </row>
     <row r="5">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>124.8560547034597</v>
+        <v>99.06804833998612</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5490530445787883</v>
+        <v>0.6338279493372083</v>
       </c>
     </row>
     <row r="6">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>208.8600406633853</v>
+        <v>195.7473573445334</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3753566022281607</v>
+        <v>0.4059372187579549</v>
       </c>
     </row>
     <row r="7">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>70.13014672876125</v>
+        <v>56.97973830877191</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7875169878203055</v>
+        <v>0.8266188677865605</v>
       </c>
     </row>
     <row r="8">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>117.0468272430021</v>
+        <v>108.6008564380531</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6252280349627561</v>
+        <v>0.6503887073685743</v>
       </c>
     </row>
     <row r="9">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-82.63098097843444</v>
+        <v>-85.89257668243448</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2863366974660128</v>
+        <v>0.2676945863610501</v>
       </c>
     </row>
     <row r="10">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1409.69411728383</v>
+        <v>-1403.996198921379</v>
       </c>
       <c r="C10" t="n">
-        <v>1.158143258193863e-15</v>
+        <v>1.50428968734867e-15</v>
       </c>
     </row>
     <row r="11">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-34.83124190715679</v>
+        <v>-34.30180275614915</v>
       </c>
       <c r="C11" t="n">
-        <v>1.722294230948853e-05</v>
+        <v>2.288185701949101e-05</v>
       </c>
     </row>
     <row r="12">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>174.9536172388516</v>
+        <v>209.2329819781789</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01345417647782915</v>
+        <v>0.002262963617954393</v>
       </c>
     </row>
     <row r="13">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>466.7628948938013</v>
+        <v>471.7762118493035</v>
       </c>
       <c r="C13" t="n">
-        <v>4.761395599500026e-24</v>
+        <v>1.345982948868512e-24</v>
       </c>
     </row>
     <row r="14">
@@ -905,10 +892,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2393026616569759</v>
+        <v>0.2235922430074882</v>
       </c>
       <c r="C14" t="n">
-        <v>1.028104402358762e-06</v>
+        <v>3.658797169832912e-06</v>
       </c>
     </row>
     <row r="15">
@@ -918,10 +905,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.857259727164271e-05</v>
+        <v>-1.41171573251875e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5666396382673846</v>
+        <v>0.7746172185733877</v>
       </c>
     </row>
     <row r="16">
@@ -931,10 +918,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-16.08492035231285</v>
+        <v>-20.17131938778724</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1577884485218985</v>
+        <v>0.0714324407001386</v>
       </c>
     </row>
     <row r="17">
@@ -944,10 +931,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.562138912611395</v>
+        <v>-4.537892893797303</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3901657583496838</v>
+        <v>0.4818276970094425</v>
       </c>
     </row>
     <row r="18">
@@ -957,10 +944,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2200.920440499369</v>
+        <v>-2305.033464868777</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02273299904590278</v>
+        <v>0.01689269135476067</v>
       </c>
     </row>
     <row r="19">
@@ -970,23 +957,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-4468.37269297078</v>
+        <v>-4055.091938674924</v>
       </c>
       <c r="C19" t="n">
-        <v>2.404658930003881e-05</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-1786.512433714448</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.05426654012626675</v>
+        <v>9.07147497965258e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1000,7 +974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9467.170449211651</v>
+        <v>8969.108888469353</v>
       </c>
       <c r="C2" t="n">
-        <v>4.607689550396915e-14</v>
+        <v>5.333480207436166e-13</v>
       </c>
     </row>
     <row r="3">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-963.452958102969</v>
+        <v>-936.0130970957825</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1721592989484941</v>
+        <v>0.1848134385485178</v>
       </c>
     </row>
     <row r="4">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-331.181802342533</v>
+        <v>-328.1292203041307</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5268217727039048</v>
+        <v>0.5307814236384878</v>
       </c>
     </row>
     <row r="5">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>99.39806553202314</v>
+        <v>65.06255022110723</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6369428750807049</v>
+        <v>0.7570529602725682</v>
       </c>
     </row>
     <row r="6">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16.01888578118277</v>
+        <v>-42.23782722439971</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9460898891632147</v>
+        <v>0.8584348462544077</v>
       </c>
     </row>
     <row r="7">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40.9025679748238</v>
+        <v>14.51106917757193</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8763509582016411</v>
+        <v>0.9559654652604792</v>
       </c>
     </row>
     <row r="8">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-106.6981255856914</v>
+        <v>-125.9122059816884</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6587996696984617</v>
+        <v>0.6022878063696724</v>
       </c>
     </row>
     <row r="9">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.53322248810488</v>
+        <v>8.913944475300028</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8821388773666803</v>
+        <v>0.908797128237835</v>
       </c>
     </row>
     <row r="10">
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1462.064005120129</v>
+        <v>-1450.790995144369</v>
       </c>
       <c r="C10" t="n">
-        <v>1.833341706401597e-16</v>
+        <v>3.123061396114603e-16</v>
       </c>
     </row>
     <row r="11">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-31.27541288366412</v>
+        <v>-30.64686065294207</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001173218439002899</v>
+        <v>0.0001603849546635446</v>
       </c>
     </row>
     <row r="12">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>168.173878634797</v>
+        <v>217.8915443313504</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01859288543935691</v>
+        <v>0.00165642247610735</v>
       </c>
     </row>
     <row r="13">
@@ -1175,10 +1149,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>477.3643812608498</v>
+        <v>484.5780901071357</v>
       </c>
       <c r="C13" t="n">
-        <v>5.117725552505272e-25</v>
+        <v>8.776565555031562e-26</v>
       </c>
     </row>
     <row r="14">
@@ -1188,10 +1162,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2412396871508297</v>
+        <v>0.2184824323214948</v>
       </c>
       <c r="C14" t="n">
-        <v>8.598589421577633e-07</v>
+        <v>6.244770390076333e-06</v>
       </c>
     </row>
     <row r="15">
@@ -1201,10 +1175,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-7.268577745080934e-05</v>
+        <v>-5.113422642993325e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.139524038047342</v>
+        <v>0.2928146349297963</v>
       </c>
     </row>
     <row r="16">
@@ -1214,10 +1188,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-7.167211984134099</v>
+        <v>-13.44825820724765</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5320783015379509</v>
+        <v>0.2321509800214407</v>
       </c>
     </row>
     <row r="17">
@@ -1227,10 +1201,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.3360827271858211</v>
+        <v>1.23789724732151</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9588300360459385</v>
+        <v>0.8486991821745938</v>
       </c>
     </row>
     <row r="18">
@@ -1240,10 +1214,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1811.448813746517</v>
+        <v>-1957.492859553397</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06080702573398558</v>
+        <v>0.04253510846892501</v>
       </c>
     </row>
     <row r="19">
@@ -1253,23 +1227,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-4483.090501720526</v>
+        <v>-3858.802746896961</v>
       </c>
       <c r="C19" t="n">
-        <v>2.729900509618252e-05</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-2639.421047739803</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.00492005620273726</v>
+        <v>0.0002239205324387199</v>
       </c>
     </row>
   </sheetData>
@@ -1283,7 +1244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8813.74534412848</v>
+        <v>8295.331349633241</v>
       </c>
       <c r="C2" t="n">
-        <v>9.804889765098037e-13</v>
+        <v>1.185870296012957e-11</v>
       </c>
     </row>
     <row r="3">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1025.339849841451</v>
+        <v>-1000.902549551033</v>
       </c>
       <c r="C3" t="n">
-        <v>0.138571224724135</v>
+        <v>0.1483498510712902</v>
       </c>
     </row>
     <row r="4">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>74.45383747100266</v>
+        <v>66.32321789103094</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8846545339404915</v>
+        <v>0.8972142399988372</v>
       </c>
     </row>
     <row r="5">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>256.2666551019606</v>
+        <v>217.7198357380515</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2197209048193821</v>
+        <v>0.2963226954467588</v>
       </c>
     </row>
     <row r="6">
@@ -1367,10 +1328,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>161.7483283412157</v>
+        <v>136.3623896554375</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4899541001671321</v>
+        <v>0.5604289887734122</v>
       </c>
     </row>
     <row r="7">
@@ -1380,10 +1341,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>193.0813382769855</v>
+        <v>169.4288855717078</v>
       </c>
       <c r="C7" t="n">
-        <v>0.459903928626254</v>
+        <v>0.5166364195107134</v>
       </c>
     </row>
     <row r="8">
@@ -1393,10 +1354,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>124.328869270996</v>
+        <v>106.2488540290401</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6041628761226988</v>
+        <v>0.6577579538529728</v>
       </c>
     </row>
     <row r="9">
@@ -1406,10 +1367,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-51.26047855904549</v>
+        <v>-54.06695357926819</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5077263374140619</v>
+        <v>0.4849077456251112</v>
       </c>
     </row>
     <row r="10">
@@ -1419,10 +1380,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1198.299934376261</v>
+        <v>-1189.844073321672</v>
       </c>
       <c r="C10" t="n">
-        <v>8.844556888891198e-12</v>
+        <v>1.249022716437592e-11</v>
       </c>
     </row>
     <row r="11">
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-31.7790964700356</v>
+        <v>-30.84477353700022</v>
       </c>
       <c r="C11" t="n">
-        <v>7.327002818398246e-05</v>
+        <v>0.0001178861247411925</v>
       </c>
     </row>
     <row r="12">
@@ -1445,10 +1406,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>172.5258882886172</v>
+        <v>224.6557980875934</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01511371376557137</v>
+        <v>0.001089557330146548</v>
       </c>
     </row>
     <row r="13">
@@ -1458,10 +1419,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>494.3379629243676</v>
+        <v>501.6510839593374</v>
       </c>
       <c r="C13" t="n">
-        <v>2.791557014968746e-27</v>
+        <v>4.245366958842465e-28</v>
       </c>
     </row>
     <row r="14">
@@ -1471,10 +1432,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2453546812044892</v>
+        <v>0.2217475585995917</v>
       </c>
       <c r="C14" t="n">
-        <v>4.746375101451948e-07</v>
+        <v>3.949749433790856e-06</v>
       </c>
     </row>
     <row r="15">
@@ -1484,10 +1445,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.85735387596142e-05</v>
+        <v>-1.725454227195865e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4356016013927282</v>
+        <v>0.7245042616297341</v>
       </c>
     </row>
     <row r="16">
@@ -1497,10 +1458,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-6.898602509321401</v>
+        <v>-13.17196736519356</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5432482959456244</v>
+        <v>0.2374253723419607</v>
       </c>
     </row>
     <row r="17">
@@ -1510,10 +1471,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.017177849527071</v>
+        <v>3.540620006049329</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7531317949290359</v>
+        <v>0.5798191612858355</v>
       </c>
     </row>
     <row r="18">
@@ -1523,10 +1484,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1944.891385398887</v>
+        <v>-2081.886894807644</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04346813108895633</v>
+        <v>0.03053376990749051</v>
       </c>
     </row>
     <row r="19">
@@ -1536,23 +1497,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-4712.99948621638</v>
+        <v>-4074.154201505211</v>
       </c>
       <c r="C19" t="n">
-        <v>7.595377075333155e-06</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-2712.35178475486</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.003384432357844871</v>
+        <v>7.67894187723053e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1566,7 +1514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10396.3915777605</v>
+        <v>9898.012420113602</v>
       </c>
       <c r="C2" t="n">
-        <v>1.459217432336824e-16</v>
+        <v>1.903424877402149e-15</v>
       </c>
     </row>
     <row r="3">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1089.053665807334</v>
+        <v>-1060.52237947245</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1340221306980663</v>
+        <v>0.1446045965405017</v>
       </c>
     </row>
     <row r="4">
@@ -1624,10 +1572,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-367.0205389167577</v>
+        <v>-377.0448234299421</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4785002909787713</v>
+        <v>0.4667016373821661</v>
       </c>
     </row>
     <row r="5">
@@ -1637,10 +1585,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106.7385462069975</v>
+        <v>75.4777110156575</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6128647504964055</v>
+        <v>0.7201809382755745</v>
       </c>
     </row>
     <row r="6">
@@ -1650,10 +1598,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55.11739278636242</v>
+        <v>34.29075736180852</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8172821195731452</v>
+        <v>0.8856832694343945</v>
       </c>
     </row>
     <row r="7">
@@ -1663,10 +1611,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>170.608972425292</v>
+        <v>147.3231700727268</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5180877402679986</v>
+        <v>0.5767073214835066</v>
       </c>
     </row>
     <row r="8">
@@ -1676,10 +1624,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>202.3198235430851</v>
+        <v>186.4066013685762</v>
       </c>
       <c r="C8" t="n">
-        <v>0.408305452939981</v>
+        <v>0.4461697242886079</v>
       </c>
     </row>
     <row r="9">
@@ -1689,10 +1637,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2162393955948545</v>
+        <v>-4.070091729929366</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9977972916343871</v>
+        <v>0.9585638653803787</v>
       </c>
     </row>
     <row r="10">
@@ -1702,10 +1650,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1270.593794455006</v>
+        <v>-1261.814498163843</v>
       </c>
       <c r="C10" t="n">
-        <v>1.108234658055498e-12</v>
+        <v>1.592546458771345e-12</v>
       </c>
     </row>
     <row r="11">
@@ -1715,10 +1663,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-33.17909682395781</v>
+        <v>-32.37091134987151</v>
       </c>
       <c r="C11" t="n">
-        <v>5.002213983483593e-05</v>
+        <v>7.553025208049137e-05</v>
       </c>
     </row>
     <row r="12">
@@ -1728,10 +1676,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>151.7128756650255</v>
+        <v>200.6230055732732</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03487387501412191</v>
+        <v>0.003969194072922422</v>
       </c>
     </row>
     <row r="13">
@@ -1741,10 +1689,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>447.0864627063436</v>
+        <v>454.075974623673</v>
       </c>
       <c r="C13" t="n">
-        <v>4.155717520111313e-22</v>
+        <v>8.389183080632302e-23</v>
       </c>
     </row>
     <row r="14">
@@ -1754,10 +1702,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2607775702546402</v>
+        <v>0.2386943292209807</v>
       </c>
       <c r="C14" t="n">
-        <v>1.076878097721024e-07</v>
+        <v>8.205356418659653e-07</v>
       </c>
     </row>
     <row r="15">
@@ -1767,10 +1715,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.207993368552332e-05</v>
+        <v>-2.182928514226495e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3956915223581348</v>
+        <v>0.6559311096093668</v>
       </c>
     </row>
     <row r="16">
@@ -1780,10 +1728,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-13.28312359612112</v>
+        <v>-19.21732583882019</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2501862726268638</v>
+        <v>0.09034757414780867</v>
       </c>
     </row>
     <row r="17">
@@ -1793,10 +1741,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4.908050426282599</v>
+        <v>-3.359479059629828</v>
       </c>
       <c r="C17" t="n">
-        <v>0.453795214154151</v>
+        <v>0.6068760358824858</v>
       </c>
     </row>
     <row r="18">
@@ -1806,10 +1754,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2493.472114477753</v>
+        <v>-2633.916397633797</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01069603032361616</v>
+        <v>0.006952665716928307</v>
       </c>
     </row>
     <row r="19">
@@ -1819,23 +1767,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-5041.591939101645</v>
+        <v>-4439.745350471936</v>
       </c>
       <c r="C19" t="n">
-        <v>2.473734615550967e-06</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-2580.101443274141</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.006606863433552449</v>
+        <v>2.245207349627664e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1849,7 +1784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1881,10 +1816,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9754.324609122401</v>
+        <v>9345.868301811199</v>
       </c>
       <c r="C2" t="n">
-        <v>7.626681678876048e-15</v>
+        <v>5.267986212770827e-14</v>
       </c>
     </row>
     <row r="3">
@@ -1894,10 +1829,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-923.5289257557868</v>
+        <v>-911.4153297962168</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1910083630950413</v>
+        <v>0.1969755345743665</v>
       </c>
     </row>
     <row r="4">
@@ -1907,10 +1842,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-458.8070260002032</v>
+        <v>-466.3293530061959</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3946253389980106</v>
+        <v>0.387011802683043</v>
       </c>
     </row>
     <row r="5">
@@ -1920,10 +1855,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85.3835226057426</v>
+        <v>56.20963388997699</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6853585139525574</v>
+        <v>0.7893410105244477</v>
       </c>
     </row>
     <row r="6">
@@ -1933,10 +1868,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82.83568053811828</v>
+        <v>67.87061920179437</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7271674701414466</v>
+        <v>0.7749436565158203</v>
       </c>
     </row>
     <row r="7">
@@ -1946,10 +1881,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>230.64098217868</v>
+        <v>211.8124699428391</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3827544446568205</v>
+        <v>0.4226653964914737</v>
       </c>
     </row>
     <row r="8">
@@ -1959,10 +1894,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>124.0926337473901</v>
+        <v>110.517643897941</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6087605903797648</v>
+        <v>0.6484664730110621</v>
       </c>
     </row>
     <row r="9">
@@ -1972,10 +1907,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-75.12424724953495</v>
+        <v>-78.30099890842973</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3357743563219101</v>
+        <v>0.3157652774213826</v>
       </c>
     </row>
     <row r="10">
@@ -1985,10 +1920,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1416.220618807803</v>
+        <v>-1410.890240343264</v>
       </c>
       <c r="C10" t="n">
-        <v>1.791459859070511e-15</v>
+        <v>2.296832362123221e-15</v>
       </c>
     </row>
     <row r="11">
@@ -1998,10 +1933,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-34.18045737703427</v>
+        <v>-33.59837455797924</v>
       </c>
       <c r="C11" t="n">
-        <v>2.973357167331466e-05</v>
+        <v>4.032738908149722e-05</v>
       </c>
     </row>
     <row r="12">
@@ -2011,10 +1946,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>191.1952728973848</v>
+        <v>231.5961534030031</v>
       </c>
       <c r="C12" t="n">
-        <v>0.007539386132181636</v>
+        <v>0.0008365328052759458</v>
       </c>
     </row>
     <row r="13">
@@ -2024,10 +1959,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>443.0259040983028</v>
+        <v>448.7172761025232</v>
       </c>
       <c r="C13" t="n">
-        <v>1.324588281188888e-21</v>
+        <v>3.596862905988984e-22</v>
       </c>
     </row>
     <row r="14">
@@ -2037,10 +1972,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2589052724742066</v>
+        <v>0.2408254995449589</v>
       </c>
       <c r="C14" t="n">
-        <v>1.455200341511807e-07</v>
+        <v>7.214059183774334e-07</v>
       </c>
     </row>
     <row r="15">
@@ -2050,10 +1985,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.152726399340623e-05</v>
+        <v>-2.515977820008418e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4010486855638568</v>
+        <v>0.6071451001671972</v>
       </c>
     </row>
     <row r="16">
@@ -2063,10 +1998,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-11.44410607331039</v>
+        <v>-16.42594218465917</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3225790925845244</v>
+        <v>0.1482818426562431</v>
       </c>
     </row>
     <row r="17">
@@ -2076,10 +2011,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.886097079715042</v>
+        <v>2.18879248098463</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8913296966424451</v>
+        <v>0.7348131504359359</v>
       </c>
     </row>
     <row r="18">
@@ -2089,10 +2024,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2448.424185255912</v>
+        <v>-2559.598375996118</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01225875735009559</v>
+        <v>0.008766588357667573</v>
       </c>
     </row>
     <row r="19">
@@ -2102,23 +2037,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-4787.613867916582</v>
+        <v>-4284.141468648579</v>
       </c>
       <c r="C19" t="n">
-        <v>8.705273213015521e-06</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-2140.539316342408</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.02307117752113415</v>
+        <v>4.782633539633276e-05</v>
       </c>
     </row>
   </sheetData>
@@ -2132,7 +2054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2164,10 +2086,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10064.53090964434</v>
+        <v>9636.370790633675</v>
       </c>
       <c r="C2" t="n">
-        <v>1.055738302061312e-15</v>
+        <v>8.201876903229636e-15</v>
       </c>
     </row>
     <row r="3">
@@ -2177,10 +2099,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-850.1907707970046</v>
+        <v>-827.8635740514894</v>
       </c>
       <c r="C3" t="n">
-        <v>0.232809393905286</v>
+        <v>0.2453666330613655</v>
       </c>
     </row>
     <row r="4">
@@ -2190,10 +2112,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-168.1446559777756</v>
+        <v>-167.9738494620709</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7517488123049018</v>
+        <v>0.7520447868920102</v>
       </c>
     </row>
     <row r="5">
@@ -2203,10 +2125,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>125.837738863302</v>
+        <v>97.1725461523379</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5500568942606318</v>
+        <v>0.6439087946104778</v>
       </c>
     </row>
     <row r="6">
@@ -2216,10 +2138,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68.30973057519859</v>
+        <v>51.3173818248405</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7730195116803108</v>
+        <v>0.8284120318926</v>
       </c>
     </row>
     <row r="7">
@@ -2229,10 +2151,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>96.64303459547517</v>
+        <v>79.19115059573852</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7139952894697529</v>
+        <v>0.7638925326195021</v>
       </c>
     </row>
     <row r="8">
@@ -2242,10 +2164,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-17.26417937517373</v>
+        <v>-30.1218002345642</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9431752498727424</v>
+        <v>0.9010209927628736</v>
       </c>
     </row>
     <row r="9">
@@ -2255,10 +2177,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-45.71288865719649</v>
+        <v>-48.20228094057747</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5607729788952409</v>
+        <v>0.5396809112728427</v>
       </c>
     </row>
     <row r="10">
@@ -2268,10 +2190,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1463.534729625776</v>
+        <v>-1456.258624077665</v>
       </c>
       <c r="C10" t="n">
-        <v>1.749138150872497e-16</v>
+        <v>2.467721567123044e-16</v>
       </c>
     </row>
     <row r="11">
@@ -2281,10 +2203,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-29.61164414247959</v>
+        <v>-28.82833117802435</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0002844257856386887</v>
+        <v>0.0004070556586288834</v>
       </c>
     </row>
     <row r="12">
@@ -2294,10 +2216,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>141.4917830395497</v>
+        <v>182.4165456510785</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0489208833627776</v>
+        <v>0.00879682310105168</v>
       </c>
     </row>
     <row r="13">
@@ -2307,10 +2229,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>466.0595745123494</v>
+        <v>472.135668747817</v>
       </c>
       <c r="C13" t="n">
-        <v>9.280676122566934e-24</v>
+        <v>2.115594833473749e-24</v>
       </c>
     </row>
     <row r="14">
@@ -2320,10 +2242,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2597621910629219</v>
+        <v>0.2410784207598202</v>
       </c>
       <c r="C14" t="n">
-        <v>1.254349711341957e-07</v>
+        <v>6.587350233784648e-07</v>
       </c>
     </row>
     <row r="15">
@@ -2333,10 +2255,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.522141385853457e-05</v>
+        <v>-2.814839449803016e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3665805881232455</v>
+        <v>0.569911045449131</v>
       </c>
     </row>
     <row r="16">
@@ -2346,10 +2268,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-20.28818135802679</v>
+        <v>-25.13467628364738</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07470908698368327</v>
+        <v>0.02468590499361624</v>
       </c>
     </row>
     <row r="17">
@@ -2359,10 +2281,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3.010277951228909</v>
+        <v>-1.698092542765206</v>
       </c>
       <c r="C17" t="n">
-        <v>0.64468365490975</v>
+        <v>0.7940273838312915</v>
       </c>
     </row>
     <row r="18">
@@ -2372,10 +2294,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1583.922873879717</v>
+        <v>-1710.298714523918</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1061615941359179</v>
+        <v>0.08064590476127852</v>
       </c>
     </row>
     <row r="19">
@@ -2385,23 +2307,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-4292.415462727466</v>
+        <v>-3792.531041336465</v>
       </c>
       <c r="C19" t="n">
-        <v>5.28163057721489e-05</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-2160.135360072162</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.02154359195217201</v>
+        <v>0.0002633533737886832</v>
       </c>
     </row>
   </sheetData>
@@ -2415,7 +2324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2447,10 +2356,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10278.18296738493</v>
+        <v>9940.838854489317</v>
       </c>
       <c r="C2" t="n">
-        <v>1.335086246409088e-16</v>
+        <v>6.129973966453716e-16</v>
       </c>
     </row>
     <row r="3">
@@ -2460,10 +2369,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-943.2009086461004</v>
+        <v>-935.5349939494974</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1999943274746717</v>
+        <v>0.203722456603545</v>
       </c>
     </row>
     <row r="4">
@@ -2473,10 +2382,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-358.0029494458009</v>
+        <v>-359.9831815174227</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4913331410158251</v>
+        <v>0.4889917229450595</v>
       </c>
     </row>
     <row r="5">
@@ -2486,10 +2395,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>127.8235626281933</v>
+        <v>105.2999131244343</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5420301122613829</v>
+        <v>0.6148972307177459</v>
       </c>
     </row>
     <row r="6">
@@ -2499,10 +2408,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>209.8557726546402</v>
+        <v>193.6776340343925</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3747797685093045</v>
+        <v>0.4124456251883216</v>
       </c>
     </row>
     <row r="7">
@@ -2512,10 +2421,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>178.2744178982912</v>
+        <v>162.4741998530672</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4978892366830459</v>
+        <v>0.5365796117509114</v>
       </c>
     </row>
     <row r="8">
@@ -2525,10 +2434,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>74.56776098545464</v>
+        <v>63.53167601230513</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7575546235762382</v>
+        <v>0.7925080233616387</v>
       </c>
     </row>
     <row r="9">
@@ -2538,10 +2447,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-8.147989668313343</v>
+        <v>-10.16158130272978</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9167933108106238</v>
+        <v>0.89633778438276</v>
       </c>
     </row>
     <row r="10">
@@ -2551,10 +2460,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1248.239694416964</v>
+        <v>-1243.293544093795</v>
       </c>
       <c r="C10" t="n">
-        <v>1.882585370965982e-12</v>
+        <v>2.299098331311863e-12</v>
       </c>
     </row>
     <row r="11">
@@ -2564,10 +2473,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-33.92732631496707</v>
+        <v>-33.3233688556751</v>
       </c>
       <c r="C11" t="n">
-        <v>2.912731626653131e-05</v>
+        <v>3.979451330235886e-05</v>
       </c>
     </row>
     <row r="12">
@@ -2577,10 +2486,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>172.3753170548331</v>
+        <v>205.4276309123536</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01638682115300528</v>
+        <v>0.003146834436208059</v>
       </c>
     </row>
     <row r="13">
@@ -2590,10 +2499,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>457.0376518361109</v>
+        <v>461.7472858368235</v>
       </c>
       <c r="C13" t="n">
-        <v>3.599725937354535e-23</v>
+        <v>1.121601360270272e-23</v>
       </c>
     </row>
     <row r="14">
@@ -2603,10 +2512,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2378202288614114</v>
+        <v>0.2227442107574488</v>
       </c>
       <c r="C14" t="n">
-        <v>1.13718236409204e-06</v>
+        <v>3.79115903113425e-06</v>
       </c>
     </row>
     <row r="15">
@@ -2616,10 +2525,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.809716060134763e-05</v>
+        <v>-4.50096850487186e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2466739771090379</v>
+        <v>0.3646730760780409</v>
       </c>
     </row>
     <row r="16">
@@ -2629,10 +2538,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-19.96341104864617</v>
+        <v>-23.99760525005607</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08008613316182635</v>
+        <v>0.03209778643173049</v>
       </c>
     </row>
     <row r="17">
@@ -2642,10 +2551,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.725588467264703</v>
+        <v>-4.730233135301233</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3741062375245823</v>
+        <v>0.4612486001929058</v>
       </c>
     </row>
     <row r="18">
@@ -2655,10 +2564,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1720.326061480557</v>
+        <v>-1791.994914555151</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0801277745529861</v>
+        <v>0.06814684565627499</v>
       </c>
     </row>
     <row r="19">
@@ -2668,23 +2577,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-3971.650290508774</v>
+        <v>-3549.930735429057</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0001924832008721574</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-1729.359994331842</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.06477252596277923</v>
+        <v>0.0006450847321225601</v>
       </c>
     </row>
   </sheetData>
@@ -2698,7 +2594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2730,10 +2626,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10269.26754854226</v>
+        <v>9814.36403866569</v>
       </c>
       <c r="C2" t="n">
-        <v>9.063124959098754e-17</v>
+        <v>9.725814449297078e-16</v>
       </c>
     </row>
     <row r="3">
@@ -2743,10 +2639,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-627.675181810715</v>
+        <v>-616.1244671888005</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3805154763892319</v>
+        <v>0.3894676835089768</v>
       </c>
     </row>
     <row r="4">
@@ -2756,10 +2652,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-137.4742165221067</v>
+        <v>-137.277856568915</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7868999580524596</v>
+        <v>0.7872557609561435</v>
       </c>
     </row>
     <row r="5">
@@ -2769,10 +2665,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>98.75046208077643</v>
+        <v>65.44103895731918</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6365408704053424</v>
+        <v>0.7537740963398508</v>
       </c>
     </row>
     <row r="6">
@@ -2782,10 +2678,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>212.5164018812644</v>
+        <v>192.6475131949718</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3662212806663077</v>
+        <v>0.4126087410531664</v>
       </c>
     </row>
     <row r="7">
@@ -2795,10 +2691,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>186.4952010979754</v>
+        <v>163.9602752116463</v>
       </c>
       <c r="C7" t="n">
-        <v>0.474910914849288</v>
+        <v>0.5297717738519547</v>
       </c>
     </row>
     <row r="8">
@@ -2808,10 +2704,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36.15410414967462</v>
+        <v>19.5560511026957</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8802623403015692</v>
+        <v>0.9350545071905005</v>
       </c>
     </row>
     <row r="9">
@@ -2821,10 +2717,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-14.18150196902678</v>
+        <v>-17.4684231225902</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8545477689215202</v>
+        <v>0.8213766360081661</v>
       </c>
     </row>
     <row r="10">
@@ -2834,10 +2730,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1341.386749844844</v>
+        <v>-1335.45403046967</v>
       </c>
       <c r="C10" t="n">
-        <v>2.728763131370054e-14</v>
+        <v>3.576645383019023e-14</v>
       </c>
     </row>
     <row r="11">
@@ -2847,10 +2743,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-31.68560031836427</v>
+        <v>-30.99365077321741</v>
       </c>
       <c r="C11" t="n">
-        <v>7.440430565857118e-05</v>
+        <v>0.0001060118105488199</v>
       </c>
     </row>
     <row r="12">
@@ -2860,10 +2756,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>143.0313593438293</v>
+        <v>188.1086102035151</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04337855050981576</v>
+        <v>0.006116717437045414</v>
       </c>
     </row>
     <row r="13">
@@ -2873,10 +2769,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>484.8874867326571</v>
+        <v>491.5024088349977</v>
       </c>
       <c r="C13" t="n">
-        <v>3.297673453595383e-26</v>
+        <v>6.04311688116832e-27</v>
       </c>
     </row>
     <row r="14">
@@ -2886,10 +2782,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2460034043122973</v>
+        <v>0.2249410378863136</v>
       </c>
       <c r="C14" t="n">
-        <v>4.349362103093513e-07</v>
+        <v>2.776712544430456e-06</v>
       </c>
     </row>
     <row r="15">
@@ -2899,10 +2795,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.21301328867092e-05</v>
+        <v>-3.323462996749118e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2906011554875818</v>
+        <v>0.4957430211651461</v>
       </c>
     </row>
     <row r="16">
@@ -2912,10 +2808,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-17.77607710762336</v>
+        <v>-23.26598579780688</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1162241095417455</v>
+        <v>0.03634623392441508</v>
       </c>
     </row>
     <row r="17">
@@ -2925,10 +2821,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.796191239422492</v>
+        <v>-4.405201070986301</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3669910978851448</v>
+        <v>0.4915191293034307</v>
       </c>
     </row>
     <row r="18">
@@ -2938,10 +2834,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2093.859071661172</v>
+        <v>-2214.701321796439</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03108356514150863</v>
+        <v>0.0224634346729572</v>
       </c>
     </row>
     <row r="19">
@@ -2951,23 +2847,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-4391.104577790455</v>
+        <v>-3823.840697995059</v>
       </c>
       <c r="C19" t="n">
-        <v>3.394968391079019e-05</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-2399.673318082588</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.0103139855761369</v>
+        <v>0.0002239226583113833</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Germany_other.xlsx
+++ b/outputs/ML_Results/dist_commute/Germany_other.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ57338166" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ57748283" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ58229681" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ58748508" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ59311285" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ59858130" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ00425709" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ00933101" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ01446852" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ10255829" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ10853436" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ11466542" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ12097494" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ12680454" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ13310448" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ13892379" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ14474780" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ15025756" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9906.54288309394</v>
+        <v>12430.5653230325</v>
       </c>
       <c r="C2" t="n">
-        <v>1.800380683246211e-15</v>
+        <v>1.381970472276867e-19</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1031.213237402815</v>
+        <v>-1495.294520574698</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1565465266498265</v>
+        <v>0.06294139764413133</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-501.7252305353898</v>
+        <v>-185.638645787211</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3337839314360908</v>
+        <v>0.7531670851204265</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>264.6610658113797</v>
+        <v>869.3916416641007</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2112866245778373</v>
+        <v>0.0002172044459569392</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>132.1766929505734</v>
+        <v>117.2697810871121</v>
       </c>
       <c r="C6" t="n">
-        <v>0.579535029560079</v>
+        <v>0.6580565137975474</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.17772245926076</v>
+        <v>5.691203035667399</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8735298866443663</v>
+        <v>0.9845877127913285</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-39.71145313775801</v>
+        <v>-12.96234860524925</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8704822724988371</v>
+        <v>0.9618541436400407</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.28323433600566</v>
+        <v>96.38286999554306</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8249385545871765</v>
+        <v>0.2718744154046263</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1289.309234329043</v>
+        <v>-1894.079952848242</v>
       </c>
       <c r="C10" t="n">
-        <v>5.569666296341531e-13</v>
+        <v>1.911368319991452e-21</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-35.42839637265212</v>
+        <v>-48.26436574035171</v>
       </c>
       <c r="C11" t="n">
-        <v>1.438772577683192e-05</v>
+        <v>1.192137954345585e-07</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>175.293511247277</v>
+        <v>217.3768002845256</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01230700331675299</v>
+        <v>0.005002633671307615</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>453.5547601998289</v>
+        <v>413.3268510919133</v>
       </c>
       <c r="C13" t="n">
-        <v>1.20621213945493e-22</v>
+        <v>5.121623774121331e-16</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2236423132203778</v>
+        <v>0.2604632118388518</v>
       </c>
       <c r="C14" t="n">
-        <v>4.512662846812229e-06</v>
+        <v>1.099333537037841e-07</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.685831699777234e-06</v>
+        <v>-8.533674756938615e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9568383093336469</v>
+        <v>0.1222417319130475</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-22.29551922430231</v>
+        <v>-21.88897662030025</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04881426408264395</v>
+        <v>0.08060953820865889</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3.338786103322133</v>
+        <v>-4.710530452201567</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6083524194282345</v>
+        <v>0.511233871841386</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2733.349492082581</v>
+        <v>-2860.95857823939</v>
       </c>
       <c r="C18" t="n">
-        <v>0.005218353126404175</v>
+        <v>0.008450698291109872</v>
       </c>
     </row>
     <row r="19">
@@ -687,10 +687,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-3870.506354889485</v>
+        <v>-4556.967986651737</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0002222431746986263</v>
+        <v>8.906519067810376e-05</v>
       </c>
     </row>
   </sheetData>
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10107.29081152513</v>
+        <v>11856.18568574996</v>
       </c>
       <c r="C2" t="n">
-        <v>2.372339833086613e-16</v>
+        <v>6.980914158083449e-18</v>
       </c>
     </row>
     <row r="3">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-712.1665564532349</v>
+        <v>-1571.782385113431</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3114156671322352</v>
+        <v>0.0503798531637237</v>
       </c>
     </row>
     <row r="4">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-527.0858010042947</v>
+        <v>-366.3328744500112</v>
       </c>
       <c r="C4" t="n">
-        <v>0.306894824382467</v>
+        <v>0.5336619289978943</v>
       </c>
     </row>
     <row r="5">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>99.06804833998612</v>
+        <v>558.7183259087526</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6338279493372083</v>
+        <v>0.01761347340781605</v>
       </c>
     </row>
     <row r="6">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>195.7473573445334</v>
+        <v>108.4050869590934</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4059372187579549</v>
+        <v>0.6823369112704137</v>
       </c>
     </row>
     <row r="7">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56.97973830877191</v>
+        <v>225.6278254563522</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8266188677865605</v>
+        <v>0.4420775204375823</v>
       </c>
     </row>
     <row r="8">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>108.6008564380531</v>
+        <v>65.61031018752431</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6503887073685743</v>
+        <v>0.8081833165415264</v>
       </c>
     </row>
     <row r="9">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-85.89257668243448</v>
+        <v>54.9012012015465</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2676945863610501</v>
+        <v>0.5311883600184346</v>
       </c>
     </row>
     <row r="10">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1403.996198921379</v>
+        <v>-2037.077583040564</v>
       </c>
       <c r="C10" t="n">
-        <v>1.50428968734867e-15</v>
+        <v>1.472610973040756e-24</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-34.30180275614915</v>
+        <v>-48.09207087478843</v>
       </c>
       <c r="C11" t="n">
-        <v>2.288185701949101e-05</v>
+        <v>1.411548002471536e-07</v>
       </c>
     </row>
     <row r="12">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>209.2329819781789</v>
+        <v>146.7301526875585</v>
       </c>
       <c r="C12" t="n">
-        <v>0.002262963617954393</v>
+        <v>0.05689287211169089</v>
       </c>
     </row>
     <row r="13">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>471.7762118493035</v>
+        <v>446.8785426958315</v>
       </c>
       <c r="C13" t="n">
-        <v>1.345982948868512e-24</v>
+        <v>3.165286291286954e-18</v>
       </c>
     </row>
     <row r="14">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2235922430074882</v>
+        <v>0.3245206267719649</v>
       </c>
       <c r="C14" t="n">
-        <v>3.658797169832912e-06</v>
+        <v>5.906915026573705e-11</v>
       </c>
     </row>
     <row r="15">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.41171573251875e-05</v>
+        <v>-5.749748080330548e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7746172185733877</v>
+        <v>0.3020479209835353</v>
       </c>
     </row>
     <row r="16">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-20.17131938778724</v>
+        <v>-16.94210820403208</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0714324407001386</v>
+        <v>0.1757895360294976</v>
       </c>
     </row>
     <row r="17">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4.537892893797303</v>
+        <v>0.2626019939310567</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4818276970094425</v>
+        <v>0.9708453628453784</v>
       </c>
     </row>
     <row r="18">
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2305.033464868777</v>
+        <v>-2627.460482874616</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01689269135476067</v>
+        <v>0.01634345908565947</v>
       </c>
     </row>
     <row r="19">
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-4055.091938674924</v>
+        <v>-5857.54159811772</v>
       </c>
       <c r="C19" t="n">
-        <v>9.07147497965258e-05</v>
+        <v>4.82482313230242e-07</v>
       </c>
     </row>
   </sheetData>
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8969.108888469353</v>
+        <v>12707.1882179487</v>
       </c>
       <c r="C2" t="n">
-        <v>5.333480207436166e-13</v>
+        <v>2.394803499012202e-20</v>
       </c>
     </row>
     <row r="3">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-936.0130970957825</v>
+        <v>-1896.084457040558</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1848134385485178</v>
+        <v>0.02116891297895596</v>
       </c>
     </row>
     <row r="4">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-328.1292203041307</v>
+        <v>-847.450791873687</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5307814236384878</v>
+        <v>0.1601838006951918</v>
       </c>
     </row>
     <row r="5">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65.06255022110723</v>
+        <v>379.3826543633428</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7570529602725682</v>
+        <v>0.1066137459617076</v>
       </c>
     </row>
     <row r="6">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-42.23782722439971</v>
+        <v>-244.2368260102526</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8584348462544077</v>
+        <v>0.3553774836825631</v>
       </c>
     </row>
     <row r="7">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.51106917757193</v>
+        <v>19.36137201081135</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9559654652604792</v>
+        <v>0.9473590936053774</v>
       </c>
     </row>
     <row r="8">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-125.9122059816884</v>
+        <v>-264.4885642163188</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6022878063696724</v>
+        <v>0.3258687275887452</v>
       </c>
     </row>
     <row r="9">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.913944475300028</v>
+        <v>63.84435597468091</v>
       </c>
       <c r="C9" t="n">
-        <v>0.908797128237835</v>
+        <v>0.4624389643551033</v>
       </c>
     </row>
     <row r="10">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1450.790995144369</v>
+        <v>-1931.002463460468</v>
       </c>
       <c r="C10" t="n">
-        <v>3.123061396114603e-16</v>
+        <v>2.019087326091669e-22</v>
       </c>
     </row>
     <row r="11">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-30.64686065294207</v>
+        <v>-53.92446009417506</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001603849546635446</v>
+        <v>3.313241465077501e-09</v>
       </c>
     </row>
     <row r="12">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>217.8915443313504</v>
+        <v>151.7486964884431</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00165642247610735</v>
+        <v>0.04910984189596253</v>
       </c>
     </row>
     <row r="13">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>484.5780901071357</v>
+        <v>426.3748817799922</v>
       </c>
       <c r="C13" t="n">
-        <v>8.776565555031562e-26</v>
+        <v>6.356395352586864e-17</v>
       </c>
     </row>
     <row r="14">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2184824323214948</v>
+        <v>0.2582212152844625</v>
       </c>
       <c r="C14" t="n">
-        <v>6.244770390076333e-06</v>
+        <v>1.329840342585003e-07</v>
       </c>
     </row>
     <row r="15">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.113422642993325e-05</v>
+        <v>-4.902873563885284e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2928146349297963</v>
+        <v>0.3708997356501781</v>
       </c>
     </row>
     <row r="16">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-13.44825820724765</v>
+        <v>-28.71055920532928</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2321509800214407</v>
+        <v>0.02185420113060535</v>
       </c>
     </row>
     <row r="17">
@@ -1201,10 +1201,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.23789724732151</v>
+        <v>-2.868174433257593</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8486991821745938</v>
+        <v>0.6892395068586132</v>
       </c>
     </row>
     <row r="18">
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1957.492859553397</v>
+        <v>-2786.810003421729</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04253510846892501</v>
+        <v>0.01049408436891302</v>
       </c>
     </row>
     <row r="19">
@@ -1227,10 +1227,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-3858.802746896961</v>
+        <v>-2705.959809467486</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0002239205324387199</v>
+        <v>0.01949309226610764</v>
       </c>
     </row>
   </sheetData>
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8295.331349633241</v>
+        <v>12048.98589922709</v>
       </c>
       <c r="C2" t="n">
-        <v>1.185870296012957e-11</v>
+        <v>2.507107876158437e-18</v>
       </c>
     </row>
     <row r="3">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1000.902549551033</v>
+        <v>-1718.614304355077</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1483498510712902</v>
+        <v>0.02867363294483561</v>
       </c>
     </row>
     <row r="4">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.32321789103094</v>
+        <v>-741.3886063572537</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8972142399988372</v>
+        <v>0.2113467500648309</v>
       </c>
     </row>
     <row r="5">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>217.7198357380515</v>
+        <v>538.6751080327947</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2963226954467588</v>
+        <v>0.02218262203603366</v>
       </c>
     </row>
     <row r="6">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>136.3623896554375</v>
+        <v>-101.511244112907</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5604289887734122</v>
+        <v>0.7019607802926855</v>
       </c>
     </row>
     <row r="7">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>169.4288855717078</v>
+        <v>-4.513242727421698</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5166364195107134</v>
+        <v>0.9877691634968466</v>
       </c>
     </row>
     <row r="8">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>106.2488540290401</v>
+        <v>75.74443011987432</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6577579538529728</v>
+        <v>0.7806269132203856</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-54.06695357926819</v>
+        <v>59.42295082364745</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4849077456251112</v>
+        <v>0.4981498747084206</v>
       </c>
     </row>
     <row r="10">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1189.844073321672</v>
+        <v>-1860.693411146825</v>
       </c>
       <c r="C10" t="n">
-        <v>1.249022716437592e-11</v>
+        <v>1.039242085298455e-20</v>
       </c>
     </row>
     <row r="11">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-30.84477353700022</v>
+        <v>-55.51222815576497</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001178861247411925</v>
+        <v>1.349577809834505e-09</v>
       </c>
     </row>
     <row r="12">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>224.6557980875934</v>
+        <v>196.1278698215145</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001089557330146548</v>
+        <v>0.01163899317391023</v>
       </c>
     </row>
     <row r="13">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>501.6510839593374</v>
+        <v>428.8619436815657</v>
       </c>
       <c r="C13" t="n">
-        <v>4.245366958842465e-28</v>
+        <v>4.711060548865281e-17</v>
       </c>
     </row>
     <row r="14">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2217475585995917</v>
+        <v>0.2746092056075521</v>
       </c>
       <c r="C14" t="n">
-        <v>3.949749433790856e-06</v>
+        <v>2.48184000595411e-08</v>
       </c>
     </row>
     <row r="15">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.725454227195865e-05</v>
+        <v>-3.327551411336872e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7245042616297341</v>
+        <v>0.5453432417734103</v>
       </c>
     </row>
     <row r="16">
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-13.17196736519356</v>
+        <v>-14.98189504313704</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2374253723419607</v>
+        <v>0.230953739088567</v>
       </c>
     </row>
     <row r="17">
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.540620006049329</v>
+        <v>-0.835657663378413</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5798191612858355</v>
+        <v>0.9079949362490616</v>
       </c>
     </row>
     <row r="18">
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2081.886894807644</v>
+        <v>-2663.468886677949</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03053376990749051</v>
+        <v>0.01453635464373334</v>
       </c>
     </row>
     <row r="19">
@@ -1497,10 +1497,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-4074.154201505211</v>
+        <v>-4694.952000845953</v>
       </c>
       <c r="C19" t="n">
-        <v>7.67894187723053e-05</v>
+        <v>5.514356098322458e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9898.012420113602</v>
+        <v>11435.15444874019</v>
       </c>
       <c r="C2" t="n">
-        <v>1.903424877402149e-15</v>
+        <v>5.792365807738516e-17</v>
       </c>
     </row>
     <row r="3">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1060.52237947245</v>
+        <v>-1591.639769847976</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1446045965405017</v>
+        <v>0.04867955353640138</v>
       </c>
     </row>
     <row r="4">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-377.0448234299421</v>
+        <v>-174.4563915906028</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4667016373821661</v>
+        <v>0.7662689302860579</v>
       </c>
     </row>
     <row r="5">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75.4777110156575</v>
+        <v>671.3921484976888</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7201809382755745</v>
+        <v>0.004140368835212992</v>
       </c>
     </row>
     <row r="6">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.29075736180852</v>
+        <v>300.1014985028962</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8856832694343945</v>
+        <v>0.2579554113134817</v>
       </c>
     </row>
     <row r="7">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>147.3231700727268</v>
+        <v>172.4645716425306</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5767073214835066</v>
+        <v>0.5565313018838011</v>
       </c>
     </row>
     <row r="8">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>186.4066013685762</v>
+        <v>243.6107245726145</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4461697242886079</v>
+        <v>0.367515399168786</v>
       </c>
     </row>
     <row r="9">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.070091729929366</v>
+        <v>42.79470361151083</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9585638653803787</v>
+        <v>0.6229816231554646</v>
       </c>
     </row>
     <row r="10">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1261.814498163843</v>
+        <v>-2077.512701617334</v>
       </c>
       <c r="C10" t="n">
-        <v>1.592546458771345e-12</v>
+        <v>1.680506768770184e-25</v>
       </c>
     </row>
     <row r="11">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-32.37091134987151</v>
+        <v>-51.77886314428083</v>
       </c>
       <c r="C11" t="n">
-        <v>7.553025208049137e-05</v>
+        <v>1.723068887795344e-08</v>
       </c>
     </row>
     <row r="12">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>200.6230055732732</v>
+        <v>212.6336247155845</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003969194072922422</v>
+        <v>0.005788033373595785</v>
       </c>
     </row>
     <row r="13">
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>454.075974623673</v>
+        <v>461.5619648212711</v>
       </c>
       <c r="C13" t="n">
-        <v>8.389183080632302e-23</v>
+        <v>2.73803866779751e-19</v>
       </c>
     </row>
     <row r="14">
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2386943292209807</v>
+        <v>0.2746629472083452</v>
       </c>
       <c r="C14" t="n">
-        <v>8.205356418659653e-07</v>
+        <v>2.111408657269243e-08</v>
       </c>
     </row>
     <row r="15">
@@ -1715,10 +1715,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.182928514226495e-05</v>
+        <v>-1.09508807104782e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6559311096093668</v>
+        <v>0.8435058583274228</v>
       </c>
     </row>
     <row r="16">
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-19.21732583882019</v>
+        <v>-8.061645444707402</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09034757414780867</v>
+        <v>0.519283406544923</v>
       </c>
     </row>
     <row r="17">
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3.359479059629828</v>
+        <v>-0.7268838493287006</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6068760358824858</v>
+        <v>0.9189092698518853</v>
       </c>
     </row>
     <row r="18">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2633.916397633797</v>
+        <v>-2733.092836576294</v>
       </c>
       <c r="C18" t="n">
-        <v>0.006952665716928307</v>
+        <v>0.01269147243003568</v>
       </c>
     </row>
     <row r="19">
@@ -1767,10 +1767,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-4439.745350471936</v>
+        <v>-5276.505756586927</v>
       </c>
       <c r="C19" t="n">
-        <v>2.245207349627664e-05</v>
+        <v>5.474993535995576e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9345.868301811199</v>
+        <v>12138.98953631701</v>
       </c>
       <c r="C2" t="n">
-        <v>5.267986212770827e-14</v>
+        <v>1.062009418693876e-18</v>
       </c>
     </row>
     <row r="3">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-911.4153297962168</v>
+        <v>-1224.737031181879</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1969755345743665</v>
+        <v>0.1393182431713006</v>
       </c>
     </row>
     <row r="4">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-466.3293530061959</v>
+        <v>-390.329391353036</v>
       </c>
       <c r="C4" t="n">
-        <v>0.387011802683043</v>
+        <v>0.5081564503413267</v>
       </c>
     </row>
     <row r="5">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56.20963388997699</v>
+        <v>754.2595478322896</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7893410105244477</v>
+        <v>0.001352816550571407</v>
       </c>
     </row>
     <row r="6">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67.87061920179437</v>
+        <v>70.95242307394642</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7749436565158203</v>
+        <v>0.7885510471131953</v>
       </c>
     </row>
     <row r="7">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.8124699428391</v>
+        <v>-19.84910240712088</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4226653964914737</v>
+        <v>0.9461686260966925</v>
       </c>
     </row>
     <row r="8">
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>110.517643897941</v>
+        <v>-116.2034018697564</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6484664730110621</v>
+        <v>0.6685937596252725</v>
       </c>
     </row>
     <row r="9">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-78.30099890842973</v>
+        <v>32.69612447816766</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3157652774213826</v>
+        <v>0.7074198981234429</v>
       </c>
     </row>
     <row r="10">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1410.890240343264</v>
+        <v>-1934.669715982174</v>
       </c>
       <c r="C10" t="n">
-        <v>2.296832362123221e-15</v>
+        <v>2.791427699676502e-22</v>
       </c>
     </row>
     <row r="11">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-33.59837455797924</v>
+        <v>-49.47220768091545</v>
       </c>
       <c r="C11" t="n">
-        <v>4.032738908149722e-05</v>
+        <v>6.200147219925187e-08</v>
       </c>
     </row>
     <row r="12">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>231.5961534030031</v>
+        <v>215.6288758894199</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0008365328052759458</v>
+        <v>0.005042146663875726</v>
       </c>
     </row>
     <row r="13">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>448.7172761025232</v>
+        <v>470.842240395842</v>
       </c>
       <c r="C13" t="n">
-        <v>3.596862905988984e-22</v>
+        <v>3.164628577453738e-20</v>
       </c>
     </row>
     <row r="14">
@@ -1972,10 +1972,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2408254995449589</v>
+        <v>0.2583069975539918</v>
       </c>
       <c r="C14" t="n">
-        <v>7.214059183774334e-07</v>
+        <v>1.577855151450421e-07</v>
       </c>
     </row>
     <row r="15">
@@ -1985,10 +1985,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.515977820008418e-05</v>
+        <v>1.620460463785175e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6071451001671972</v>
+        <v>0.7682934261636147</v>
       </c>
     </row>
     <row r="16">
@@ -1998,10 +1998,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-16.42594218465917</v>
+        <v>-6.996518141100943</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1482818426562431</v>
+        <v>0.5755642637640889</v>
       </c>
     </row>
     <row r="17">
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.18879248098463</v>
+        <v>-5.426535234568505</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7348131504359359</v>
+        <v>0.4480445029518645</v>
       </c>
     </row>
     <row r="18">
@@ -2024,10 +2024,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2559.598375996118</v>
+        <v>-3480.973653349377</v>
       </c>
       <c r="C18" t="n">
-        <v>0.008766588357667573</v>
+        <v>0.001439688802480173</v>
       </c>
     </row>
     <row r="19">
@@ -2037,10 +2037,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-4284.141468648579</v>
+        <v>-5861.788177593583</v>
       </c>
       <c r="C19" t="n">
-        <v>4.782633539633276e-05</v>
+        <v>4.86939415575552e-07</v>
       </c>
     </row>
   </sheetData>
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9636.370790633675</v>
+        <v>10621.26916685117</v>
       </c>
       <c r="C2" t="n">
-        <v>8.201876903229636e-15</v>
+        <v>2.143178679081316e-14</v>
       </c>
     </row>
     <row r="3">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-827.8635740514894</v>
+        <v>-1065.343497758139</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2453666330613655</v>
+        <v>0.1960391022331595</v>
       </c>
     </row>
     <row r="4">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-167.9738494620709</v>
+        <v>-357.1823811996483</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7520447868920102</v>
+        <v>0.5474233109191939</v>
       </c>
     </row>
     <row r="5">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>97.1725461523379</v>
+        <v>879.1441300328318</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6439087946104778</v>
+        <v>0.0001939069740097178</v>
       </c>
     </row>
     <row r="6">
@@ -2138,10 +2138,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51.3173818248405</v>
+        <v>-54.72009240714851</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8284120318926</v>
+        <v>0.8371214619296978</v>
       </c>
     </row>
     <row r="7">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>79.19115059573852</v>
+        <v>-40.13178845364462</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7638925326195021</v>
+        <v>0.892081652625916</v>
       </c>
     </row>
     <row r="8">
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-30.1218002345642</v>
+        <v>-170.6759815442714</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9010209927628736</v>
+        <v>0.529558095918467</v>
       </c>
     </row>
     <row r="9">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-48.20228094057747</v>
+        <v>2.816569322192343</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5396809112728427</v>
+        <v>0.974428622548458</v>
       </c>
     </row>
     <row r="10">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1456.258624077665</v>
+        <v>-1880.995808157791</v>
       </c>
       <c r="C10" t="n">
-        <v>2.467721567123044e-16</v>
+        <v>4.52388817326501e-21</v>
       </c>
     </row>
     <row r="11">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-28.82833117802435</v>
+        <v>-44.11643708774831</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0004070556586288834</v>
+        <v>1.269994247881724e-06</v>
       </c>
     </row>
     <row r="12">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>182.4165456510785</v>
+        <v>207.41850709043</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00879682310105168</v>
+        <v>0.007199456682111505</v>
       </c>
     </row>
     <row r="13">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>472.135668747817</v>
+        <v>442.6670438318463</v>
       </c>
       <c r="C13" t="n">
-        <v>2.115594833473749e-24</v>
+        <v>6.943870040153493e-18</v>
       </c>
     </row>
     <row r="14">
@@ -2242,10 +2242,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2410784207598202</v>
+        <v>0.3172345827202968</v>
       </c>
       <c r="C14" t="n">
-        <v>6.587350233784648e-07</v>
+        <v>1.556672810107319e-10</v>
       </c>
     </row>
     <row r="15">
@@ -2255,10 +2255,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.814839449803016e-05</v>
+        <v>-6.274055436289862e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.569911045449131</v>
+        <v>0.2599781980977598</v>
       </c>
     </row>
     <row r="16">
@@ -2268,10 +2268,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-25.13467628364738</v>
+        <v>-12.68623151764231</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02468590499361624</v>
+        <v>0.3172743074805159</v>
       </c>
     </row>
     <row r="17">
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.698092542765206</v>
+        <v>5.345765954761987</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7940273838312915</v>
+        <v>0.4581042089876142</v>
       </c>
     </row>
     <row r="18">
@@ -2294,10 +2294,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1710.298714523918</v>
+        <v>-2046.002751285657</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08064590476127852</v>
+        <v>0.06072504111254434</v>
       </c>
     </row>
     <row r="19">
@@ -2307,10 +2307,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-3792.531041336465</v>
+        <v>-5405.711132655048</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0002633533737886832</v>
+        <v>3.637154946587765e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9940.838854489317</v>
+        <v>11569.78808899885</v>
       </c>
       <c r="C2" t="n">
-        <v>6.129973966453716e-16</v>
+        <v>2.543361094279737e-17</v>
       </c>
     </row>
     <row r="3">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-935.5349939494974</v>
+        <v>-2083.95665050315</v>
       </c>
       <c r="C3" t="n">
-        <v>0.203722456603545</v>
+        <v>0.008271128634835543</v>
       </c>
     </row>
     <row r="4">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-359.9831815174227</v>
+        <v>-553.7697593749385</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4889917229450595</v>
+        <v>0.345428276580078</v>
       </c>
     </row>
     <row r="5">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>105.2999131244343</v>
+        <v>661.3490877424888</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6148972307177459</v>
+        <v>0.004523585818912224</v>
       </c>
     </row>
     <row r="6">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>193.6776340343925</v>
+        <v>-80.98719324810139</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4124456251883216</v>
+        <v>0.757891020381034</v>
       </c>
     </row>
     <row r="7">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>162.4741998530672</v>
+        <v>-39.81114715355534</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5365796117509114</v>
+        <v>0.8911614825552334</v>
       </c>
     </row>
     <row r="8">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63.53167601230513</v>
+        <v>-241.1683159121029</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7925080233616387</v>
+        <v>0.3698689519089619</v>
       </c>
     </row>
     <row r="9">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-10.16158130272978</v>
+        <v>18.41924044749533</v>
       </c>
       <c r="C9" t="n">
-        <v>0.89633778438276</v>
+        <v>0.8314397795136008</v>
       </c>
     </row>
     <row r="10">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1243.293544093795</v>
+        <v>-2136.194799929031</v>
       </c>
       <c r="C10" t="n">
-        <v>2.299098331311863e-12</v>
+        <v>3.083242666751558e-27</v>
       </c>
     </row>
     <row r="11">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-33.3233688556751</v>
+        <v>-45.47089961475705</v>
       </c>
       <c r="C11" t="n">
-        <v>3.979451330235886e-05</v>
+        <v>4.670470425664219e-07</v>
       </c>
     </row>
     <row r="12">
@@ -2486,10 +2486,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>205.4276309123536</v>
+        <v>248.1930415615476</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003146834436208059</v>
+        <v>0.001261291926270075</v>
       </c>
     </row>
     <row r="13">
@@ -2499,10 +2499,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>461.7472858368235</v>
+        <v>415.2529932996619</v>
       </c>
       <c r="C13" t="n">
-        <v>1.121601360270272e-23</v>
+        <v>2.469440784808088e-16</v>
       </c>
     </row>
     <row r="14">
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2227442107574488</v>
+        <v>0.2663309181798749</v>
       </c>
       <c r="C14" t="n">
-        <v>3.79115903113425e-06</v>
+        <v>4.084309016339519e-08</v>
       </c>
     </row>
     <row r="15">
@@ -2525,10 +2525,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.50096850487186e-05</v>
+        <v>-5.700450691648192e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3646730760780409</v>
+        <v>0.2970887315359779</v>
       </c>
     </row>
     <row r="16">
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-23.99760525005607</v>
+        <v>-18.90179398609554</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03209778643173049</v>
+        <v>0.1299047346775211</v>
       </c>
     </row>
     <row r="17">
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4.730233135301233</v>
+        <v>-0.6139833437994042</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4612486001929058</v>
+        <v>0.9310565004886173</v>
       </c>
     </row>
     <row r="18">
@@ -2564,10 +2564,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1791.994914555151</v>
+        <v>-1968.682827120785</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06814684565627499</v>
+        <v>0.06934461790757569</v>
       </c>
     </row>
     <row r="19">
@@ -2577,10 +2577,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-3549.930735429057</v>
+        <v>-3867.489831402589</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0006450847321225601</v>
+        <v>0.0007647437950637367</v>
       </c>
     </row>
   </sheetData>
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9814.36403866569</v>
+        <v>11321.90802624745</v>
       </c>
       <c r="C2" t="n">
-        <v>9.725814449297078e-16</v>
+        <v>1.266827614640382e-16</v>
       </c>
     </row>
     <row r="3">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-616.1244671888005</v>
+        <v>-1201.565318381978</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3894676835089768</v>
+        <v>0.1390927278029411</v>
       </c>
     </row>
     <row r="4">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-137.277856568915</v>
+        <v>-629.8907087041487</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7872557609561435</v>
+        <v>0.2854422375415017</v>
       </c>
     </row>
     <row r="5">
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65.44103895731918</v>
+        <v>628.6312619793516</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7537740963398508</v>
+        <v>0.007187060792097881</v>
       </c>
     </row>
     <row r="6">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>192.6475131949718</v>
+        <v>80.43661629538582</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4126087410531664</v>
+        <v>0.759478056685864</v>
       </c>
     </row>
     <row r="7">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.9602752116463</v>
+        <v>-25.21922207254568</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5297717738519547</v>
+        <v>0.9315642704029042</v>
       </c>
     </row>
     <row r="8">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.5560511026957</v>
+        <v>-41.73726928330132</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9350545071905005</v>
+        <v>0.8770536863662798</v>
       </c>
     </row>
     <row r="9">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-17.4684231225902</v>
+        <v>113.817402994154</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8213766360081661</v>
+        <v>0.1893583350274858</v>
       </c>
     </row>
     <row r="10">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1335.45403046967</v>
+        <v>-2256.338910819442</v>
       </c>
       <c r="C10" t="n">
-        <v>3.576645383019023e-14</v>
+        <v>5.051353062711435e-30</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2743,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-30.99365077321741</v>
+        <v>-39.2164690262791</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001060118105488199</v>
+        <v>1.704015438321942e-05</v>
       </c>
     </row>
     <row r="12">
@@ -2756,10 +2756,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>188.1086102035151</v>
+        <v>194.6559463546515</v>
       </c>
       <c r="C12" t="n">
-        <v>0.006116717437045414</v>
+        <v>0.01150695600370169</v>
       </c>
     </row>
     <row r="13">
@@ -2769,10 +2769,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>491.5024088349977</v>
+        <v>385.7935820752483</v>
       </c>
       <c r="C13" t="n">
-        <v>6.04311688116832e-27</v>
+        <v>3.322907626217332e-14</v>
       </c>
     </row>
     <row r="14">
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2249410378863136</v>
+        <v>0.2833957900705325</v>
       </c>
       <c r="C14" t="n">
-        <v>2.776712544430456e-06</v>
+        <v>6.742426979394665e-09</v>
       </c>
     </row>
     <row r="15">
@@ -2795,10 +2795,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.323462996749118e-05</v>
+        <v>-6.746346268997545e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4957430211651461</v>
+        <v>0.2178430632529089</v>
       </c>
     </row>
     <row r="16">
@@ -2808,10 +2808,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-23.26598579780688</v>
+        <v>-21.23620342892563</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03634623392441508</v>
+        <v>0.08834620261291276</v>
       </c>
     </row>
     <row r="17">
@@ -2821,10 +2821,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4.405201070986301</v>
+        <v>2.605304591262595</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4915191293034307</v>
+        <v>0.714472201268459</v>
       </c>
     </row>
     <row r="18">
@@ -2834,10 +2834,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2214.701321796439</v>
+        <v>-1639.216536702055</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0224634346729572</v>
+        <v>0.1295992666296761</v>
       </c>
     </row>
     <row r="19">
@@ -2847,10 +2847,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-3823.840697995059</v>
+        <v>-5002.060943672825</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0002239226583113833</v>
+        <v>1.553126844174479e-05</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Germany_other.xlsx
+++ b/outputs/ML_Results/dist_commute/Germany_other.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ10255829" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ10853436" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ11466542" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ12097494" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ12680454" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ13310448" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ13892379" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ14474780" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ15025756" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ32251069" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ32817601" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ33402063" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ34002909" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ34563328" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ35207633" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ35882013" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ36457433" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ37014408" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_commute/Germany_other.xlsx
+++ b/outputs/ML_Results/dist_commute/Germany_other.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ32251069" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ32817601" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ33402063" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ34002909" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ34563328" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ35207633" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ35882013" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ36457433" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ37014408" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ08592495" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ08993225" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ09422514" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ09836821" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ10289377" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ10729638" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ11162185" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ11642831" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ12078636" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12430.5653230325</v>
+        <v>9260.97256661832</v>
       </c>
       <c r="C2" t="n">
-        <v>1.381970472276867e-19</v>
+        <v>7.988835809292304e-19</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1495.294520574698</v>
+        <v>-1459.948933866959</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06294139764413133</v>
+        <v>0.06958484153984236</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-185.638645787211</v>
+        <v>-114.0437493059166</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7531670851204265</v>
+        <v>0.8469110013526785</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>869.3916416641007</v>
+        <v>890.4618973298075</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002172044459569392</v>
+        <v>0.0001496535514722042</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>117.2697810871121</v>
+        <v>74.95023582070667</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6580565137975474</v>
+        <v>0.7774398698967819</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.691203035667399</v>
+        <v>-4.666930845604156</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9845877127913285</v>
+        <v>0.9873759907495037</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-12.96234860524925</v>
+        <v>-22.3424233811848</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9618541436400407</v>
+        <v>0.934376991140946</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>96.38286999554306</v>
+        <v>96.7458027875186</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2718744154046263</v>
+        <v>0.2703297698861821</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1894.079952848242</v>
+        <v>-1886.750505537534</v>
       </c>
       <c r="C10" t="n">
-        <v>1.911368319991452e-21</v>
+        <v>3.026315998549852e-21</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-48.26436574035171</v>
+        <v>-49.07031706944986</v>
       </c>
       <c r="C11" t="n">
-        <v>1.192137954345585e-07</v>
+        <v>7.538936878756667e-08</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>217.3768002845256</v>
+        <v>212.069693121448</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005002633671307615</v>
+        <v>0.00621453238691491</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413.3268510919133</v>
+        <v>476.7719064612741</v>
       </c>
       <c r="C13" t="n">
-        <v>5.121623774121331e-16</v>
+        <v>2.416025544124022e-24</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2604632118388518</v>
+        <v>0.08394336853954071</v>
       </c>
       <c r="C14" t="n">
-        <v>1.099333537037841e-07</v>
+        <v>0.02090181375684078</v>
       </c>
     </row>
     <row r="15">
@@ -635,62 +635,36 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8.533674756938615e-05</v>
+        <v>-4.820297591994713e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1222417319130475</v>
+        <v>0.3765840350637943</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-21.88897662030025</v>
+        <v>7.741751742651786</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08060953820865889</v>
+        <v>0.208168384111703</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4.710530452201567</v>
+        <v>-2721.895497140463</v>
       </c>
       <c r="C17" t="n">
-        <v>0.511233871841386</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-2860.95857823939</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.008450698291109872</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-4556.967986651737</v>
-      </c>
-      <c r="C19" t="n">
-        <v>8.906519067810376e-05</v>
+        <v>0.01201584073643969</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,10 +710,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11856.18568574996</v>
+        <v>8676.767061581702</v>
       </c>
       <c r="C2" t="n">
-        <v>6.980914158083449e-18</v>
+        <v>1.166241532845268e-16</v>
       </c>
     </row>
     <row r="3">
@@ -749,10 +723,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1571.782385113431</v>
+        <v>-1515.17051591195</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0503798531637237</v>
+        <v>0.05960609047114237</v>
       </c>
     </row>
     <row r="4">
@@ -762,10 +736,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-366.3328744500112</v>
+        <v>-284.0030139100316</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5336619289978943</v>
+        <v>0.6298488980281207</v>
       </c>
     </row>
     <row r="5">
@@ -775,10 +749,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>558.7183259087526</v>
+        <v>589.2603645249601</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01761347340781605</v>
+        <v>0.01225697609875703</v>
       </c>
     </row>
     <row r="6">
@@ -788,10 +762,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>108.4050869590934</v>
+        <v>55.06289212277341</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6823369112704137</v>
+        <v>0.83549966911671</v>
       </c>
     </row>
     <row r="7">
@@ -801,10 +775,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>225.6278254563522</v>
+        <v>215.5095467535783</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4420775204375823</v>
+        <v>0.4635569882399543</v>
       </c>
     </row>
     <row r="8">
@@ -814,10 +788,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>65.61031018752431</v>
+        <v>60.82682260172965</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8081833165415264</v>
+        <v>0.8222162265586488</v>
       </c>
     </row>
     <row r="9">
@@ -827,10 +801,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>54.9012012015465</v>
+        <v>49.25412778457047</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5311883600184346</v>
+        <v>0.5744772476864337</v>
       </c>
     </row>
     <row r="10">
@@ -840,10 +814,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2037.077583040564</v>
+        <v>-2035.742798727936</v>
       </c>
       <c r="C10" t="n">
-        <v>1.472610973040756e-24</v>
+        <v>1.876136879969296e-24</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +827,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-48.09207087478843</v>
+        <v>-48.93664003920088</v>
       </c>
       <c r="C11" t="n">
-        <v>1.411548002471536e-07</v>
+        <v>8.875683514563092e-08</v>
       </c>
     </row>
     <row r="12">
@@ -866,10 +840,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>146.7301526875585</v>
+        <v>138.0292850842812</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05689287211169089</v>
+        <v>0.07363758494800425</v>
       </c>
     </row>
     <row r="13">
@@ -879,10 +853,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>446.8785426958315</v>
+        <v>505.502768105288</v>
       </c>
       <c r="C13" t="n">
-        <v>3.165286291286954e-18</v>
+        <v>1.04475218894757e-26</v>
       </c>
     </row>
     <row r="14">
@@ -892,10 +866,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3245206267719649</v>
+        <v>0.1140556278490197</v>
       </c>
       <c r="C14" t="n">
-        <v>5.906915026573705e-11</v>
+        <v>0.00186449718830071</v>
       </c>
     </row>
     <row r="15">
@@ -905,62 +879,36 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.749748080330548e-05</v>
+        <v>-7.373782767801829e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3020479209835353</v>
+        <v>0.893404051690335</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-16.94210820403208</v>
+        <v>12.6794792267529</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1757895360294976</v>
+        <v>0.03967241599380738</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2626019939310567</v>
+        <v>-2558.234494263044</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9708453628453784</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-2627.460482874616</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.01634345908565947</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-5857.54159811772</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4.82482313230242e-07</v>
+        <v>0.01919531500231777</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1006,10 +954,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12707.1882179487</v>
+        <v>9579.037939615793</v>
       </c>
       <c r="C2" t="n">
-        <v>2.394803499012202e-20</v>
+        <v>3.461658742002284e-20</v>
       </c>
     </row>
     <row r="3">
@@ -1019,10 +967,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1896.084457040558</v>
+        <v>-1886.875477185756</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02116891297895596</v>
+        <v>0.02177834883621932</v>
       </c>
     </row>
     <row r="4">
@@ -1032,10 +980,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-847.450791873687</v>
+        <v>-814.334251271319</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1601838006951918</v>
+        <v>0.1771004245739294</v>
       </c>
     </row>
     <row r="5">
@@ -1045,10 +993,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>379.3826543633428</v>
+        <v>374.2897804115826</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1066137459617076</v>
+        <v>0.1109914809911837</v>
       </c>
     </row>
     <row r="6">
@@ -1058,10 +1006,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-244.2368260102526</v>
+        <v>-271.827738775328</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3553774836825631</v>
+        <v>0.3038682891010573</v>
       </c>
     </row>
     <row r="7">
@@ -1071,10 +1019,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.36137201081135</v>
+        <v>14.71485803055646</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9473590936053774</v>
+        <v>0.9600090806758458</v>
       </c>
     </row>
     <row r="8">
@@ -1084,10 +1032,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-264.4885642163188</v>
+        <v>-272.7586008838394</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3258687275887452</v>
+        <v>0.3113021816734355</v>
       </c>
     </row>
     <row r="9">
@@ -1097,10 +1045,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>63.84435597468091</v>
+        <v>69.07068210128237</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4624389643551033</v>
+        <v>0.4265605102117438</v>
       </c>
     </row>
     <row r="10">
@@ -1110,10 +1058,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1931.002463460468</v>
+        <v>-1927.558084785897</v>
       </c>
       <c r="C10" t="n">
-        <v>2.019087326091669e-22</v>
+        <v>2.563877123634237e-22</v>
       </c>
     </row>
     <row r="11">
@@ -1123,10 +1071,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-53.92446009417506</v>
+        <v>-54.45750215609326</v>
       </c>
       <c r="C11" t="n">
-        <v>3.313241465077501e-09</v>
+        <v>2.352091815044217e-09</v>
       </c>
     </row>
     <row r="12">
@@ -1136,10 +1084,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>151.7486964884431</v>
+        <v>149.4821679411593</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04910984189596253</v>
+        <v>0.05265756042490739</v>
       </c>
     </row>
     <row r="13">
@@ -1149,10 +1097,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>426.3748817799922</v>
+        <v>490.1941158497698</v>
       </c>
       <c r="C13" t="n">
-        <v>6.356395352586864e-17</v>
+        <v>1.242295768104596e-25</v>
       </c>
     </row>
     <row r="14">
@@ -1162,10 +1110,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2582212152844625</v>
+        <v>0.1291589214731123</v>
       </c>
       <c r="C14" t="n">
-        <v>1.329840342585003e-07</v>
+        <v>0.0003892649959369426</v>
       </c>
     </row>
     <row r="15">
@@ -1175,62 +1123,36 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.902873563885284e-05</v>
+        <v>-2.750021754011729e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3708997356501781</v>
+        <v>0.6114647954928286</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-28.71055920532928</v>
+        <v>9.822246953030671</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02185420113060535</v>
+        <v>0.1090595710656178</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.868174433257593</v>
+        <v>-2590.349600072568</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6892395068586132</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-2786.810003421729</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.01049408436891302</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-2705.959809467486</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.01949309226610764</v>
+        <v>0.01700265405608245</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +1166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1276,10 +1198,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12048.98589922709</v>
+        <v>9382.608755904957</v>
       </c>
       <c r="C2" t="n">
-        <v>2.507107876158437e-18</v>
+        <v>5.090453939589601e-19</v>
       </c>
     </row>
     <row r="3">
@@ -1289,10 +1211,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1718.614304355077</v>
+        <v>-1657.258169553159</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02867363294483561</v>
+        <v>0.03498890036537985</v>
       </c>
     </row>
     <row r="4">
@@ -1302,10 +1224,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-741.3886063572537</v>
+        <v>-673.503519993742</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2113467500648309</v>
+        <v>0.2564828130633113</v>
       </c>
     </row>
     <row r="5">
@@ -1315,10 +1237,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>538.6751080327947</v>
+        <v>564.5169631840572</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02218262203603366</v>
+        <v>0.01642661945198789</v>
       </c>
     </row>
     <row r="6">
@@ -1328,10 +1250,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-101.511244112907</v>
+        <v>-134.5373268610705</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7019607802926855</v>
+        <v>0.6123026659334534</v>
       </c>
     </row>
     <row r="7">
@@ -1341,10 +1263,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.513242727421698</v>
+        <v>-22.45548055017809</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9877691634968466</v>
+        <v>0.9392631269557008</v>
       </c>
     </row>
     <row r="8">
@@ -1354,10 +1276,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>75.74443011987432</v>
+        <v>75.60457161955554</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7806269132203856</v>
+        <v>0.7812512092844865</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1289,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>59.42295082364745</v>
+        <v>54.64162431920171</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4981498747084206</v>
+        <v>0.533335157699651</v>
       </c>
     </row>
     <row r="10">
@@ -1380,10 +1302,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1860.693411146825</v>
+        <v>-1858.241014216705</v>
       </c>
       <c r="C10" t="n">
-        <v>1.039242085298455e-20</v>
+        <v>1.281278713891801e-20</v>
       </c>
     </row>
     <row r="11">
@@ -1393,10 +1315,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-55.51222815576497</v>
+        <v>-56.32409748041579</v>
       </c>
       <c r="C11" t="n">
-        <v>1.349577809834505e-09</v>
+        <v>8.025809673216769e-10</v>
       </c>
     </row>
     <row r="12">
@@ -1406,10 +1328,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>196.1278698215145</v>
+        <v>188.3798304567765</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01163899317391023</v>
+        <v>0.01544984741473359</v>
       </c>
     </row>
     <row r="13">
@@ -1419,10 +1341,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>428.8619436815657</v>
+        <v>481.0189559510733</v>
       </c>
       <c r="C13" t="n">
-        <v>4.711060548865281e-17</v>
+        <v>1.276176802450009e-24</v>
       </c>
     </row>
     <row r="14">
@@ -1432,10 +1354,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2746092056075521</v>
+        <v>0.1052926386049809</v>
       </c>
       <c r="C14" t="n">
-        <v>2.48184000595411e-08</v>
+        <v>0.003918148755851049</v>
       </c>
     </row>
     <row r="15">
@@ -1445,62 +1367,36 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.327551411336872e-05</v>
+        <v>2.048077317703555e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5453432417734103</v>
+        <v>0.9699367980866418</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-14.98189504313704</v>
+        <v>9.574612522810142</v>
       </c>
       <c r="C16" t="n">
-        <v>0.230953739088567</v>
+        <v>0.122983858277616</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.835657663378413</v>
+        <v>-2539.135138243676</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9079949362490616</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-2663.468886677949</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.01453635464373334</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-4694.952000845953</v>
-      </c>
-      <c r="C19" t="n">
-        <v>5.514356098322458e-05</v>
+        <v>0.01936909532726883</v>
       </c>
     </row>
   </sheetData>
@@ -1514,7 +1410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1546,10 +1442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11435.15444874019</v>
+        <v>9095.437229253759</v>
       </c>
       <c r="C2" t="n">
-        <v>5.792365807738516e-17</v>
+        <v>2.335124855922436e-18</v>
       </c>
     </row>
     <row r="3">
@@ -1559,10 +1455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1591.639769847976</v>
+        <v>-1500.506891509894</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04867955353640138</v>
+        <v>0.06320125096859026</v>
       </c>
     </row>
     <row r="4">
@@ -1572,10 +1468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-174.4563915906028</v>
+        <v>-80.24467370847401</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7662689302860579</v>
+        <v>0.8912927132010315</v>
       </c>
     </row>
     <row r="5">
@@ -1585,10 +1481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>671.3921484976888</v>
+        <v>701.9714787201979</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004140368835212992</v>
+        <v>0.002695182206773171</v>
       </c>
     </row>
     <row r="6">
@@ -1598,10 +1494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>300.1014985028962</v>
+        <v>262.3644750031909</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2579554113134817</v>
+        <v>0.3230535718772258</v>
       </c>
     </row>
     <row r="7">
@@ -1611,10 +1507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>172.4645716425306</v>
+        <v>156.7051032557533</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5565313018838011</v>
+        <v>0.5935706996695274</v>
       </c>
     </row>
     <row r="8">
@@ -1624,10 +1520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243.6107245726145</v>
+        <v>231.2780867083002</v>
       </c>
       <c r="C8" t="n">
-        <v>0.367515399168786</v>
+        <v>0.3928035463581612</v>
       </c>
     </row>
     <row r="9">
@@ -1637,10 +1533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42.79470361151083</v>
+        <v>36.77928465080127</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6229816231554646</v>
+        <v>0.6727234112102594</v>
       </c>
     </row>
     <row r="10">
@@ -1650,10 +1546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2077.512701617334</v>
+        <v>-2078.671484340312</v>
       </c>
       <c r="C10" t="n">
-        <v>1.680506768770184e-25</v>
+        <v>1.795818520989741e-25</v>
       </c>
     </row>
     <row r="11">
@@ -1663,10 +1559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-51.77886314428083</v>
+        <v>-52.29254880560254</v>
       </c>
       <c r="C11" t="n">
-        <v>1.723068887795344e-08</v>
+        <v>1.291680574101847e-08</v>
       </c>
     </row>
     <row r="12">
@@ -1676,10 +1572,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>212.6336247155845</v>
+        <v>203.5821614986758</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005788033373595785</v>
+        <v>0.008287311141907529</v>
       </c>
     </row>
     <row r="13">
@@ -1689,10 +1585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>461.5619648212711</v>
+        <v>503.5611912043137</v>
       </c>
       <c r="C13" t="n">
-        <v>2.73803866779751e-19</v>
+        <v>1.153778779134222e-26</v>
       </c>
     </row>
     <row r="14">
@@ -1702,10 +1598,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2746629472083452</v>
+        <v>0.09885387228605202</v>
       </c>
       <c r="C14" t="n">
-        <v>2.111408657269243e-08</v>
+        <v>0.006661775793707432</v>
       </c>
     </row>
     <row r="15">
@@ -1715,62 +1611,36 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.09508807104782e-05</v>
+        <v>3.078651360004307e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8435058583274228</v>
+        <v>0.5741385295340979</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-8.061645444707402</v>
+        <v>8.243386128794327</v>
       </c>
       <c r="C16" t="n">
-        <v>0.519283406544923</v>
+        <v>0.178466007212832</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.7268838493287006</v>
+        <v>-2685.29289437119</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9189092698518853</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-2733.092836576294</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.01269147243003568</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-5276.505756586927</v>
-      </c>
-      <c r="C19" t="n">
-        <v>5.474993535995576e-06</v>
+        <v>0.01410984547840151</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1816,10 +1686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12138.98953631701</v>
+        <v>9692.400288041576</v>
       </c>
       <c r="C2" t="n">
-        <v>1.062009418693876e-18</v>
+        <v>1.642769779966647e-20</v>
       </c>
     </row>
     <row r="3">
@@ -1829,10 +1699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1224.737031181879</v>
+        <v>-1126.844027917319</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1393182431713006</v>
+        <v>0.174273953818318</v>
       </c>
     </row>
     <row r="4">
@@ -1842,10 +1712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-390.329391353036</v>
+        <v>-276.714155764577</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5081564503413267</v>
+        <v>0.6391779964882294</v>
       </c>
     </row>
     <row r="5">
@@ -1855,10 +1725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>754.2595478322896</v>
+        <v>804.0905495431605</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001352816550571407</v>
+        <v>0.0006242285961605905</v>
       </c>
     </row>
     <row r="6">
@@ -1868,10 +1738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70.95242307394642</v>
+        <v>28.17480436903696</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7885510471131953</v>
+        <v>0.9152731633655384</v>
       </c>
     </row>
     <row r="7">
@@ -1881,10 +1751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.84910240712088</v>
+        <v>-33.02025400095658</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9461686260966925</v>
+        <v>0.9106850624648721</v>
       </c>
     </row>
     <row r="8">
@@ -1894,10 +1764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-116.2034018697564</v>
+        <v>-122.8978861228559</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6685937596252725</v>
+        <v>0.6511888611469376</v>
       </c>
     </row>
     <row r="9">
@@ -1907,10 +1777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32.69612447816766</v>
+        <v>28.42180373521848</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7074198981234429</v>
+        <v>0.7443122794581503</v>
       </c>
     </row>
     <row r="10">
@@ -1920,10 +1790,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1934.669715982174</v>
+        <v>-1928.341907317911</v>
       </c>
       <c r="C10" t="n">
-        <v>2.791427699676502e-22</v>
+        <v>4.336698452474845e-22</v>
       </c>
     </row>
     <row r="11">
@@ -1933,10 +1803,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-49.47220768091545</v>
+        <v>-49.51971980144169</v>
       </c>
       <c r="C11" t="n">
-        <v>6.200147219925187e-08</v>
+        <v>6.27211173038313e-08</v>
       </c>
     </row>
     <row r="12">
@@ -1946,10 +1816,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>215.6288758894199</v>
+        <v>205.0523579211779</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005042146663875726</v>
+        <v>0.007703452560859103</v>
       </c>
     </row>
     <row r="13">
@@ -1959,10 +1829,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>470.842240395842</v>
+        <v>513.2799468526622</v>
       </c>
       <c r="C13" t="n">
-        <v>3.164628577453738e-20</v>
+        <v>6.803725953622212e-28</v>
       </c>
     </row>
     <row r="14">
@@ -1972,10 +1842,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2583069975539918</v>
+        <v>0.06644629778296973</v>
       </c>
       <c r="C14" t="n">
-        <v>1.577855151450421e-07</v>
+        <v>0.06915158383103344</v>
       </c>
     </row>
     <row r="15">
@@ -1985,62 +1855,36 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.620460463785175e-05</v>
+        <v>6.060779950576179e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7682934261636147</v>
+        <v>0.2651692586414287</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-6.996518141100943</v>
+        <v>3.640045285091077</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5755642637640889</v>
+        <v>0.5535918856280551</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.426535234568505</v>
+        <v>-3446.163964702273</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4480445029518645</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-3480.973653349377</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.001439688802480173</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-5861.788177593583</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4.86939415575552e-07</v>
+        <v>0.001561146887255554</v>
       </c>
     </row>
   </sheetData>
@@ -2054,7 +1898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2086,10 +1930,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10621.26916685117</v>
+        <v>7877.614601052659</v>
       </c>
       <c r="C2" t="n">
-        <v>2.143178679081316e-14</v>
+        <v>7.678230662704957e-14</v>
       </c>
     </row>
     <row r="3">
@@ -2099,10 +1943,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1065.343497758139</v>
+        <v>-994.0525743582409</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1960391022331595</v>
+        <v>0.2279787493663943</v>
       </c>
     </row>
     <row r="4">
@@ -2112,10 +1956,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-357.1823811996483</v>
+        <v>-253.3796075819879</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5474233109191939</v>
+        <v>0.6697691663990932</v>
       </c>
     </row>
     <row r="5">
@@ -2125,10 +1969,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>879.1441300328318</v>
+        <v>915.1069611661774</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001939069740097178</v>
+        <v>0.0001036077557397775</v>
       </c>
     </row>
     <row r="6">
@@ -2138,10 +1982,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-54.72009240714851</v>
+        <v>-92.33008293934512</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8371214619296978</v>
+        <v>0.7289362511465926</v>
       </c>
     </row>
     <row r="7">
@@ -2151,10 +1995,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-40.13178845364462</v>
+        <v>-44.99933563280547</v>
       </c>
       <c r="C7" t="n">
-        <v>0.892081652625916</v>
+        <v>0.8792473773633159</v>
       </c>
     </row>
     <row r="8">
@@ -2164,10 +2008,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-170.6759815442714</v>
+        <v>-175.6785950691308</v>
       </c>
       <c r="C8" t="n">
-        <v>0.529558095918467</v>
+        <v>0.5181164488065746</v>
       </c>
     </row>
     <row r="9">
@@ -2177,10 +2021,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.816569322192343</v>
+        <v>5.775694973970602</v>
       </c>
       <c r="C9" t="n">
-        <v>0.974428622548458</v>
+        <v>0.947599465321676</v>
       </c>
     </row>
     <row r="10">
@@ -2190,10 +2034,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1880.995808157791</v>
+        <v>-1874.356463235634</v>
       </c>
       <c r="C10" t="n">
-        <v>4.52388817326501e-21</v>
+        <v>6.967637549306793e-21</v>
       </c>
     </row>
     <row r="11">
@@ -2203,10 +2047,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-44.11643708774831</v>
+        <v>-44.81630679087858</v>
       </c>
       <c r="C11" t="n">
-        <v>1.269994247881724e-06</v>
+        <v>8.874163553417214e-07</v>
       </c>
     </row>
     <row r="12">
@@ -2216,10 +2060,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>207.41850709043</v>
+        <v>200.7089015521389</v>
       </c>
       <c r="C12" t="n">
-        <v>0.007199456682111505</v>
+        <v>0.009356487418359479</v>
       </c>
     </row>
     <row r="13">
@@ -2229,10 +2073,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>442.6670438318463</v>
+        <v>493.0728999663826</v>
       </c>
       <c r="C13" t="n">
-        <v>6.943870040153493e-18</v>
+        <v>1.110578108663211e-25</v>
       </c>
     </row>
     <row r="14">
@@ -2242,10 +2086,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3172345827202968</v>
+        <v>0.1289132357142089</v>
       </c>
       <c r="C14" t="n">
-        <v>1.556672810107319e-10</v>
+        <v>0.0004662945198733603</v>
       </c>
     </row>
     <row r="15">
@@ -2255,62 +2099,36 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-6.274055436289862e-05</v>
+        <v>-2.024342820406273e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2599781980977598</v>
+        <v>0.7132150256879644</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-12.68623151764231</v>
+        <v>15.78507349770626</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3172743074805159</v>
+        <v>0.01052846838395511</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.345765954761987</v>
+        <v>-1961.684084840341</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4581042089876142</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-2046.002751285657</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.06072504111254434</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-5405.711132655048</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3.637154946587765e-06</v>
+        <v>0.07133535208320499</v>
       </c>
     </row>
   </sheetData>
@@ -2324,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2356,10 +2174,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11569.78808899885</v>
+        <v>8823.490260310838</v>
       </c>
       <c r="C2" t="n">
-        <v>2.543361094279737e-17</v>
+        <v>1.497573216097039e-17</v>
       </c>
     </row>
     <row r="3">
@@ -2369,10 +2187,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2083.95665050315</v>
+        <v>-2047.327086583578</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008271128634835543</v>
+        <v>0.009492069968629014</v>
       </c>
     </row>
     <row r="4">
@@ -2382,10 +2200,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-553.7697593749385</v>
+        <v>-498.252552821993</v>
       </c>
       <c r="C4" t="n">
-        <v>0.345428276580078</v>
+        <v>0.3961843121271486</v>
       </c>
     </row>
     <row r="5">
@@ -2395,10 +2213,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>661.3490877424888</v>
+        <v>679.169785774333</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004523585818912224</v>
+        <v>0.003517707837429955</v>
       </c>
     </row>
     <row r="6">
@@ -2408,10 +2226,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-80.98719324810139</v>
+        <v>-117.6277450985474</v>
       </c>
       <c r="C6" t="n">
-        <v>0.757891020381034</v>
+        <v>0.6544960912193227</v>
       </c>
     </row>
     <row r="7">
@@ -2421,10 +2239,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-39.81114715355534</v>
+        <v>-39.39306353819381</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8911614825552334</v>
+        <v>0.8923888957112536</v>
       </c>
     </row>
     <row r="8">
@@ -2434,10 +2252,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-241.1683159121029</v>
+        <v>-246.3305212612373</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3698689519089619</v>
+        <v>0.360131487209787</v>
       </c>
     </row>
     <row r="9">
@@ -2447,10 +2265,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18.41924044749533</v>
+        <v>22.849714528914</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8314397795136008</v>
+        <v>0.7917179693249146</v>
       </c>
     </row>
     <row r="10">
@@ -2460,10 +2278,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2136.194799929031</v>
+        <v>-2126.016548450409</v>
       </c>
       <c r="C10" t="n">
-        <v>3.083242666751558e-27</v>
+        <v>5.918991465764062e-27</v>
       </c>
     </row>
     <row r="11">
@@ -2473,10 +2291,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-45.47089961475705</v>
+        <v>-46.16804417966387</v>
       </c>
       <c r="C11" t="n">
-        <v>4.670470425664219e-07</v>
+        <v>3.168698167709844e-07</v>
       </c>
     </row>
     <row r="12">
@@ -2486,10 +2304,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>248.1930415615476</v>
+        <v>241.5694187101668</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001261291926270075</v>
+        <v>0.001702341152238594</v>
       </c>
     </row>
     <row r="13">
@@ -2499,10 +2317,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>415.2529932996619</v>
+        <v>470.1376070295964</v>
       </c>
       <c r="C13" t="n">
-        <v>2.469440784808088e-16</v>
+        <v>3.201887599317495e-24</v>
       </c>
     </row>
     <row r="14">
@@ -2512,10 +2330,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2663309181798749</v>
+        <v>0.1167009130122578</v>
       </c>
       <c r="C14" t="n">
-        <v>4.084309016339519e-08</v>
+        <v>0.001224825165759694</v>
       </c>
     </row>
     <row r="15">
@@ -2525,62 +2343,36 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.700450691648192e-05</v>
+        <v>-2.599619674737103e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2970887315359779</v>
+        <v>0.630160650810254</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-18.90179398609554</v>
+        <v>10.18269278047023</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1299047346775211</v>
+        <v>0.09359760778376661</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.6139833437994042</v>
+        <v>-1847.572348019525</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9310565004886173</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-1968.682827120785</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.06934461790757569</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-3867.489831402589</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0007647437950637367</v>
+        <v>0.08715834611005605</v>
       </c>
     </row>
   </sheetData>
@@ -2594,7 +2386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2626,10 +2418,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11321.90802624745</v>
+        <v>8018.053541285565</v>
       </c>
       <c r="C2" t="n">
-        <v>1.266827614640382e-16</v>
+        <v>1.013534422799685e-14</v>
       </c>
     </row>
     <row r="3">
@@ -2639,10 +2431,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1201.565318381978</v>
+        <v>-1143.999126229392</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1390927278029411</v>
+        <v>0.1594424001053975</v>
       </c>
     </row>
     <row r="4">
@@ -2652,10 +2444,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-629.8907087041487</v>
+        <v>-535.3695159215154</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2854422375415017</v>
+        <v>0.3643594024634107</v>
       </c>
     </row>
     <row r="5">
@@ -2665,10 +2457,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>628.6312619793516</v>
+        <v>666.3968910393471</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007187060792097881</v>
+        <v>0.004336082561540416</v>
       </c>
     </row>
     <row r="6">
@@ -2678,10 +2470,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>80.43661629538582</v>
+        <v>28.53365703520177</v>
       </c>
       <c r="C6" t="n">
-        <v>0.759478056685864</v>
+        <v>0.9135843257154861</v>
       </c>
     </row>
     <row r="7">
@@ -2691,10 +2483,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.21922207254568</v>
+        <v>-39.25841339399426</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9315642704029042</v>
+        <v>0.8937917594193512</v>
       </c>
     </row>
     <row r="8">
@@ -2704,10 +2496,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-41.73726928330132</v>
+        <v>-54.22965566149054</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8770536863662798</v>
+        <v>0.8408979689331935</v>
       </c>
     </row>
     <row r="9">
@@ -2717,10 +2509,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>113.817402994154</v>
+        <v>113.4989691618317</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1893583350274858</v>
+        <v>0.1908848261431906</v>
       </c>
     </row>
     <row r="10">
@@ -2730,10 +2522,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2256.338910819442</v>
+        <v>-2248.399436342238</v>
       </c>
       <c r="C10" t="n">
-        <v>5.051353062711435e-30</v>
+        <v>9.50164682467274e-30</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2535,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-39.2164690262791</v>
+        <v>-39.9169382672665</v>
       </c>
       <c r="C11" t="n">
-        <v>1.704015438321942e-05</v>
+        <v>1.233936515285245e-05</v>
       </c>
     </row>
     <row r="12">
@@ -2756,10 +2548,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>194.6559463546515</v>
+        <v>186.8890308201601</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01150695600370169</v>
+        <v>0.01535639253166817</v>
       </c>
     </row>
     <row r="13">
@@ -2769,10 +2561,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>385.7935820752483</v>
+        <v>448.5124522299445</v>
       </c>
       <c r="C13" t="n">
-        <v>3.322907626217332e-14</v>
+        <v>6.319182430197074e-22</v>
       </c>
     </row>
     <row r="14">
@@ -2782,10 +2574,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2833957900705325</v>
+        <v>0.09431479272294829</v>
       </c>
       <c r="C14" t="n">
-        <v>6.742426979394665e-09</v>
+        <v>0.00918033157681223</v>
       </c>
     </row>
     <row r="15">
@@ -2795,62 +2587,36 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-6.746346268997545e-05</v>
+        <v>-2.771294077996792e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2178430632529089</v>
+        <v>0.6081834648823772</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-21.23620342892563</v>
+        <v>15.69291334826062</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08834620261291276</v>
+        <v>0.009955556072749859</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.605304591262595</v>
+        <v>-1469.483354222944</v>
       </c>
       <c r="C17" t="n">
-        <v>0.714472201268459</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-1639.216536702055</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1295992666296761</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-5002.060943672825</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.553126844174479e-05</v>
+        <v>0.17276659713739</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Germany_other.xlsx
+++ b/outputs/ML_Results/dist_commute/Germany_other.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ08592495" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ08993225" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ09422514" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ09836821" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ10289377" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ10729638" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ11162185" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ11642831" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ12078636" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ40133171" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ40554167" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ40993065" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ41416743" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ41840261" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ42280183" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ42692666" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ43112913" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ43528206" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9260.97256661832</v>
+        <v>9260.97256489678</v>
       </c>
       <c r="C2" t="n">
-        <v>7.988835809292304e-19</v>
+        <v>7.988835894934022e-19</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1459.948933866959</v>
+        <v>-1459.94893394758</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06958484153984236</v>
+        <v>0.06958484153984175</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-114.0437493059166</v>
+        <v>-114.0437493147825</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8469110013526785</v>
+        <v>0.8469110013410244</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>890.4618973298075</v>
+        <v>890.4618973227372</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001496535514722042</v>
+        <v>0.0001496535514982747</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74.95023582070667</v>
+        <v>74.95023581183432</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7774398698967819</v>
+        <v>0.7774398699225323</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.666930845604156</v>
+        <v>-4.666930860862294</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9873759907495037</v>
+        <v>0.9873759907082382</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-22.3424233811848</v>
+        <v>-22.34242338631225</v>
       </c>
       <c r="C8" t="n">
-        <v>0.934376991140946</v>
+        <v>0.9343769911259182</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>96.7458027875186</v>
+        <v>96.74580277313616</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2703297698861821</v>
+        <v>0.270329769955883</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1886.750505537534</v>
+        <v>-1886.750505539858</v>
       </c>
       <c r="C10" t="n">
-        <v>3.026315998549852e-21</v>
+        <v>3.026315998194952e-21</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-49.07031706944986</v>
+        <v>-49.07031707658116</v>
       </c>
       <c r="C11" t="n">
-        <v>7.538936878756667e-08</v>
+        <v>7.538936850164007e-08</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>212.069693121448</v>
+        <v>212.0696933318268</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00621453238691491</v>
+        <v>0.006214532336752022</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>476.7719064612741</v>
+        <v>476.771906447611</v>
       </c>
       <c r="C13" t="n">
-        <v>2.416025544124022e-24</v>
+        <v>2.416025550588833e-24</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.08394336853954071</v>
+        <v>8.394336852674464</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02090181375684078</v>
+        <v>0.02090181377635753</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.820297591994713e-05</v>
+        <v>-48.20297596452934</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3765840350637943</v>
+        <v>0.3765840347445448</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.741751742651786</v>
+        <v>7.741751742649598</v>
       </c>
       <c r="C16" t="n">
-        <v>0.208168384111703</v>
+        <v>0.2081683841118335</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2721.895497140463</v>
+        <v>-27.21895497140578</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01201584073643969</v>
+        <v>0.01201584073643576</v>
       </c>
     </row>
   </sheetData>
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8676.767061581702</v>
+        <v>8676.767062249584</v>
       </c>
       <c r="C2" t="n">
-        <v>1.166241532845268e-16</v>
+        <v>1.166241528231013e-16</v>
       </c>
     </row>
     <row r="3">
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1515.17051591195</v>
+        <v>-1515.17051588274</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05960609047114237</v>
+        <v>0.05960609047114022</v>
       </c>
     </row>
     <row r="4">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-284.0030139100316</v>
+        <v>-284.0030139497795</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6298488980281207</v>
+        <v>0.6298488979812542</v>
       </c>
     </row>
     <row r="5">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>589.2603645249601</v>
+        <v>589.2603645710719</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01225697609875703</v>
+        <v>0.01225697609004903</v>
       </c>
     </row>
     <row r="6">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55.06289212277341</v>
+        <v>55.06289212333945</v>
       </c>
       <c r="C6" t="n">
-        <v>0.83549966911671</v>
+        <v>0.8354996691150403</v>
       </c>
     </row>
     <row r="7">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>215.5095467535783</v>
+        <v>215.5095467885898</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4635569882399543</v>
+        <v>0.4635569881672078</v>
       </c>
     </row>
     <row r="8">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60.82682260172965</v>
+        <v>60.8268225926941</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8222162265586488</v>
+        <v>0.8222162265845934</v>
       </c>
     </row>
     <row r="9">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>49.25412778457047</v>
+        <v>49.25412778448465</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5744772476864337</v>
+        <v>0.574477247687093</v>
       </c>
     </row>
     <row r="10">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2035.742798727936</v>
+        <v>-2035.742798726737</v>
       </c>
       <c r="C10" t="n">
-        <v>1.876136879969296e-24</v>
+        <v>1.876136880083662e-24</v>
       </c>
     </row>
     <row r="11">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-48.93664003920088</v>
+        <v>-48.93664004093493</v>
       </c>
       <c r="C11" t="n">
-        <v>8.875683514563092e-08</v>
+        <v>8.875683506392715e-08</v>
       </c>
     </row>
     <row r="12">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>138.0292850842812</v>
+        <v>138.029285063715</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07363758494800425</v>
+        <v>0.07363758499065008</v>
       </c>
     </row>
     <row r="13">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>505.502768105288</v>
+        <v>505.5027680457151</v>
       </c>
       <c r="C13" t="n">
-        <v>1.04475218894757e-26</v>
+        <v>1.044752202127111e-26</v>
       </c>
     </row>
     <row r="14">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1140556278490197</v>
+        <v>11.40556277648427</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00186449718830071</v>
+        <v>0.001864497202784795</v>
       </c>
     </row>
     <row r="15">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-7.373782767801829e-06</v>
+        <v>-7.373782779104431</v>
       </c>
       <c r="C15" t="n">
-        <v>0.893404051690335</v>
+        <v>0.893404051549809</v>
       </c>
     </row>
     <row r="16">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12.6794792267529</v>
+        <v>12.6794792267516</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03967241599380738</v>
+        <v>0.03967241599382813</v>
       </c>
     </row>
     <row r="17">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2558.234494263044</v>
+        <v>-25.58234494263117</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01919531500231777</v>
+        <v>0.01919531500231402</v>
       </c>
     </row>
   </sheetData>
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9579.037939615793</v>
+        <v>9579.037939484757</v>
       </c>
       <c r="C2" t="n">
-        <v>3.461658742002284e-20</v>
+        <v>3.461658745102316e-20</v>
       </c>
     </row>
     <row r="3">
@@ -967,10 +967,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1886.875477185756</v>
+        <v>-1886.875477311586</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02177834883621932</v>
+        <v>0.0217783488360998</v>
       </c>
     </row>
     <row r="4">
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-814.334251271319</v>
+        <v>-814.3342513014612</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1771004245739294</v>
+        <v>0.177100424558641</v>
       </c>
     </row>
     <row r="5">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>374.2897804115826</v>
+        <v>374.2897804161571</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1109914809911837</v>
+        <v>0.1109914809862098</v>
       </c>
     </row>
     <row r="6">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-271.827738775328</v>
+        <v>-271.8277387540094</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3038682891010573</v>
+        <v>0.3038682891386906</v>
       </c>
     </row>
     <row r="7">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.71485803055646</v>
+        <v>14.71485805741145</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9600090806758458</v>
+        <v>0.9600090806029221</v>
       </c>
     </row>
     <row r="8">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-272.7586008838394</v>
+        <v>-272.7586008727998</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3113021816734355</v>
+        <v>0.3113021816931535</v>
       </c>
     </row>
     <row r="9">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>69.07068210128237</v>
+        <v>69.0706821486649</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4265605102117438</v>
+        <v>0.4265605098974647</v>
       </c>
     </row>
     <row r="10">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1927.558084785897</v>
+        <v>-1927.558084808375</v>
       </c>
       <c r="C10" t="n">
-        <v>2.563877123634237e-22</v>
+        <v>2.563877120700311e-22</v>
       </c>
     </row>
     <row r="11">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-54.45750215609326</v>
+        <v>-54.45750215767872</v>
       </c>
       <c r="C11" t="n">
-        <v>2.352091815044217e-09</v>
+        <v>2.352091812798135e-09</v>
       </c>
     </row>
     <row r="12">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>149.4821679411593</v>
+        <v>149.4821680363731</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05265756042490739</v>
+        <v>0.05265756027534459</v>
       </c>
     </row>
     <row r="13">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>490.1941158497698</v>
+        <v>490.1941158732689</v>
       </c>
       <c r="C13" t="n">
-        <v>1.242295768104596e-25</v>
+        <v>1.24229576177814e-25</v>
       </c>
     </row>
     <row r="14">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1291589214731123</v>
+        <v>12.91589214317686</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0003892649959369426</v>
+        <v>0.0003892649976234959</v>
       </c>
     </row>
     <row r="15">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.750021754011729e-05</v>
+        <v>-27.50021730393962</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6114647954928286</v>
+        <v>0.6114647986505035</v>
       </c>
     </row>
     <row r="16">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.822246953030671</v>
+        <v>9.822246953028866</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1090595710656178</v>
+        <v>0.1090595710656843</v>
       </c>
     </row>
     <row r="17">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2590.349600072568</v>
+        <v>-25.90349600072658</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01700265405608245</v>
+        <v>0.01700265405607842</v>
       </c>
     </row>
   </sheetData>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9382.608755904957</v>
+        <v>9382.608756358162</v>
       </c>
       <c r="C2" t="n">
-        <v>5.090453939589601e-19</v>
+        <v>5.090453925001678e-19</v>
       </c>
     </row>
     <row r="3">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1657.258169553159</v>
+        <v>-1657.258169429641</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03498890036537985</v>
+        <v>0.0349889003654751</v>
       </c>
     </row>
     <row r="4">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-673.503519993742</v>
+        <v>-673.5035200167557</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2564828130633113</v>
+        <v>0.25648281304782</v>
       </c>
     </row>
     <row r="5">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>564.5169631840572</v>
+        <v>564.5169632881697</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01642661945198789</v>
+        <v>0.01642661942723379</v>
       </c>
     </row>
     <row r="6">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134.5373268610705</v>
+        <v>-134.5373268324489</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6123026659334534</v>
+        <v>0.6123026660086777</v>
       </c>
     </row>
     <row r="7">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.45548055017809</v>
+        <v>-22.45548052602987</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9392631269557008</v>
+        <v>0.9392631270208645</v>
       </c>
     </row>
     <row r="8">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>75.60457161955554</v>
+        <v>75.60457163102154</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7812512092844865</v>
+        <v>0.7812512092521839</v>
       </c>
     </row>
     <row r="9">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>54.64162431920171</v>
+        <v>54.64162431833205</v>
       </c>
       <c r="C9" t="n">
-        <v>0.533335157699651</v>
+        <v>0.5333351577061187</v>
       </c>
     </row>
     <row r="10">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1858.241014216705</v>
+        <v>-1858.241014222188</v>
       </c>
       <c r="C10" t="n">
-        <v>1.281278713891801e-20</v>
+        <v>1.281278713553277e-20</v>
       </c>
     </row>
     <row r="11">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-56.32409748041579</v>
+        <v>-56.32409748745151</v>
       </c>
       <c r="C11" t="n">
-        <v>8.025809673216769e-10</v>
+        <v>8.025809639414939e-10</v>
       </c>
     </row>
     <row r="12">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>188.3798304567765</v>
+        <v>188.3798306640673</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01544984741473359</v>
+        <v>0.01544984730330229</v>
       </c>
     </row>
     <row r="13">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>481.0189559510733</v>
+        <v>481.0189559741731</v>
       </c>
       <c r="C13" t="n">
-        <v>1.276176802450009e-24</v>
+        <v>1.276176796331159e-24</v>
       </c>
     </row>
     <row r="14">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1052926386049809</v>
+        <v>10.52926385305426</v>
       </c>
       <c r="C14" t="n">
-        <v>0.003918148755851049</v>
+        <v>0.003918148781208375</v>
       </c>
     </row>
     <row r="15">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.048077317703555e-06</v>
+        <v>2.048077518566288</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9699367980866418</v>
+        <v>0.969936795137717</v>
       </c>
     </row>
     <row r="16">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.574612522810142</v>
+        <v>9.574612522808508</v>
       </c>
       <c r="C16" t="n">
-        <v>0.122983858277616</v>
+        <v>0.1229838582776811</v>
       </c>
     </row>
     <row r="17">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2539.135138243676</v>
+        <v>-25.39135138243743</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01936909532726883</v>
+        <v>0.0193690953272653</v>
       </c>
     </row>
   </sheetData>
@@ -1442,10 +1442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9095.437229253759</v>
+        <v>9095.4372293785</v>
       </c>
       <c r="C2" t="n">
-        <v>2.335124855922436e-18</v>
+        <v>2.335124854178725e-18</v>
       </c>
     </row>
     <row r="3">
@@ -1455,10 +1455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1500.506891509894</v>
+        <v>-1500.506891316322</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06320125096859026</v>
+        <v>0.06320125096858936</v>
       </c>
     </row>
     <row r="4">
@@ -1468,10 +1468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-80.24467370847401</v>
+        <v>-80.24467374341191</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8912927132010315</v>
+        <v>0.8912927131542672</v>
       </c>
     </row>
     <row r="5">
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>701.9714787201979</v>
+        <v>701.9714787033105</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002695182206773171</v>
+        <v>0.002695182207625376</v>
       </c>
     </row>
     <row r="6">
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>262.3644750031909</v>
+        <v>262.3644750099666</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3230535718772258</v>
+        <v>0.3230535718645582</v>
       </c>
     </row>
     <row r="7">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>156.7051032557533</v>
+        <v>156.7051032450909</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5935706996695274</v>
+        <v>0.593570699694682</v>
       </c>
     </row>
     <row r="8">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>231.2780867083002</v>
+        <v>231.2780867139484</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3928035463581612</v>
+        <v>0.3928035463466227</v>
       </c>
     </row>
     <row r="9">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>36.77928465080127</v>
+        <v>36.77928464929069</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6727234112102594</v>
+        <v>0.6727234112228435</v>
       </c>
     </row>
     <row r="10">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2078.671484340312</v>
+        <v>-2078.671484342743</v>
       </c>
       <c r="C10" t="n">
-        <v>1.795818520989741e-25</v>
+        <v>1.795818520762235e-25</v>
       </c>
     </row>
     <row r="11">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-52.29254880560254</v>
+        <v>-52.29254881399706</v>
       </c>
       <c r="C11" t="n">
-        <v>1.291680574101847e-08</v>
+        <v>1.291680568181183e-08</v>
       </c>
     </row>
     <row r="12">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>203.5821614986758</v>
+        <v>203.5821614480127</v>
       </c>
       <c r="C12" t="n">
-        <v>0.008287311141907529</v>
+        <v>0.008287311157611671</v>
       </c>
     </row>
     <row r="13">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>503.5611912043137</v>
+        <v>503.5611911989147</v>
       </c>
       <c r="C13" t="n">
-        <v>1.153778779134222e-26</v>
+        <v>1.153778780454031e-26</v>
       </c>
     </row>
     <row r="14">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.09885387228605202</v>
+        <v>9.885387227211286</v>
       </c>
       <c r="C14" t="n">
-        <v>0.006661775793707432</v>
+        <v>0.006661775801380147</v>
       </c>
     </row>
     <row r="15">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.078651360004307e-05</v>
+        <v>30.78651331748239</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5741385295340979</v>
+        <v>0.5741385331411824</v>
       </c>
     </row>
     <row r="16">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.243386128794327</v>
+        <v>8.243386128792494</v>
       </c>
       <c r="C16" t="n">
-        <v>0.178466007212832</v>
+        <v>0.1784660072129307</v>
       </c>
     </row>
     <row r="17">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2685.29289437119</v>
+        <v>-26.85292894371243</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01410984547840151</v>
+        <v>0.01410984547839943</v>
       </c>
     </row>
   </sheetData>
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9692.400288041576</v>
+        <v>9692.400288316361</v>
       </c>
       <c r="C2" t="n">
-        <v>1.642769779966647e-20</v>
+        <v>1.64276977738297e-20</v>
       </c>
     </row>
     <row r="3">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1126.844027917319</v>
+        <v>-1126.844027910673</v>
       </c>
       <c r="C3" t="n">
-        <v>0.174273953818318</v>
+        <v>0.1742739538182389</v>
       </c>
     </row>
     <row r="4">
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-276.714155764577</v>
+        <v>-276.7141557893681</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6391779964882294</v>
+        <v>0.6391779964589563</v>
       </c>
     </row>
     <row r="5">
@@ -1725,10 +1725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>804.0905495431605</v>
+        <v>804.0905495708191</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0006242285961605905</v>
+        <v>0.0006242285957502393</v>
       </c>
     </row>
     <row r="6">
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.17480436903696</v>
+        <v>28.17480438784588</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9152731633655384</v>
+        <v>0.9152731633091175</v>
       </c>
     </row>
     <row r="7">
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-33.02025400095658</v>
+        <v>-33.0202540080395</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9106850624648721</v>
+        <v>0.9106850624458087</v>
       </c>
     </row>
     <row r="8">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-122.8978861228559</v>
+        <v>-122.8978861271336</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6511888611469376</v>
+        <v>0.651188861135565</v>
       </c>
     </row>
     <row r="9">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28.42180373521848</v>
+        <v>28.42180371550187</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7443122794581503</v>
+        <v>0.7443122796279662</v>
       </c>
     </row>
     <row r="10">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1928.341907317911</v>
+        <v>-1928.341907321449</v>
       </c>
       <c r="C10" t="n">
-        <v>4.336698452474845e-22</v>
+        <v>4.336698451737076e-22</v>
       </c>
     </row>
     <row r="11">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-49.51971980144169</v>
+        <v>-49.51971980105266</v>
       </c>
       <c r="C11" t="n">
-        <v>6.27211173038313e-08</v>
+        <v>6.272111731617675e-08</v>
       </c>
     </row>
     <row r="12">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>205.0523579211779</v>
+        <v>205.0523579227273</v>
       </c>
       <c r="C12" t="n">
-        <v>0.007703452560859103</v>
+        <v>0.007703452560411861</v>
       </c>
     </row>
     <row r="13">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.2799468526622</v>
+        <v>513.2799468602152</v>
       </c>
       <c r="C13" t="n">
-        <v>6.803725953622212e-28</v>
+        <v>6.803725942946048e-28</v>
       </c>
     </row>
     <row r="14">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.06644629778296973</v>
+        <v>6.644629780675974</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06915158383103344</v>
+        <v>0.06915158373215141</v>
       </c>
     </row>
     <row r="15">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.060779950576179e-05</v>
+        <v>60.60779948749141</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2651692586414287</v>
+        <v>0.2651692587662836</v>
       </c>
     </row>
     <row r="16">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.640045285091077</v>
+        <v>3.6400452850894</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5535918856280551</v>
+        <v>0.5535918856282389</v>
       </c>
     </row>
     <row r="17">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3446.163964702273</v>
+        <v>-34.46163964702345</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001561146887255554</v>
+        <v>0.001561146887255149</v>
       </c>
     </row>
   </sheetData>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7877.614601052659</v>
+        <v>7877.61460071585</v>
       </c>
       <c r="C2" t="n">
-        <v>7.678230662704957e-14</v>
+        <v>7.678230674335249e-14</v>
       </c>
     </row>
     <row r="3">
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-994.0525743582409</v>
+        <v>-994.0525743167902</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2279787493663943</v>
+        <v>0.2279787493663029</v>
       </c>
     </row>
     <row r="4">
@@ -1956,10 +1956,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-253.3796075819879</v>
+        <v>-253.3796075780247</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6697691663990932</v>
+        <v>0.6697691664038161</v>
       </c>
     </row>
     <row r="5">
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>915.1069611661774</v>
+        <v>915.1069611375656</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001036077557397775</v>
+        <v>0.000103607755826398</v>
       </c>
     </row>
     <row r="6">
@@ -1982,10 +1982,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-92.33008293934512</v>
+        <v>-92.33008294427128</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7289362511465926</v>
+        <v>0.7289362511327615</v>
       </c>
     </row>
     <row r="7">
@@ -1995,10 +1995,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-44.99933563280547</v>
+        <v>-44.99933565757595</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8792473773633159</v>
+        <v>0.8792473772973841</v>
       </c>
     </row>
     <row r="8">
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-175.6785950691308</v>
+        <v>-175.678595071206</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5181164488065746</v>
+        <v>0.5181164488016057</v>
       </c>
     </row>
     <row r="9">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.775694973970602</v>
+        <v>5.775694949602332</v>
       </c>
       <c r="C9" t="n">
-        <v>0.947599465321676</v>
+        <v>0.9475994655420021</v>
       </c>
     </row>
     <row r="10">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1874.356463235634</v>
+        <v>-1874.356463230662</v>
       </c>
       <c r="C10" t="n">
-        <v>6.967637549306793e-21</v>
+        <v>6.967637550969662e-21</v>
       </c>
     </row>
     <row r="11">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-44.81630679087858</v>
+        <v>-44.81630679432384</v>
       </c>
       <c r="C11" t="n">
-        <v>8.874163553417214e-07</v>
+        <v>8.874163539157175e-07</v>
       </c>
     </row>
     <row r="12">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>200.7089015521389</v>
+        <v>200.7089015287216</v>
       </c>
       <c r="C12" t="n">
-        <v>0.009356487418359479</v>
+        <v>0.009356487426316274</v>
       </c>
     </row>
     <row r="13">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0728999663826</v>
+        <v>493.072899932546</v>
       </c>
       <c r="C13" t="n">
-        <v>1.110578108663211e-25</v>
+        <v>1.110578116745793e-25</v>
       </c>
     </row>
     <row r="14">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1289132357142089</v>
+        <v>12.89132357661685</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0004662945198733603</v>
+        <v>0.0004662945173736788</v>
       </c>
     </row>
     <row r="15">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.024342820406273e-05</v>
+        <v>-20.24342827243726</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7132150256879644</v>
+        <v>0.713215024752007</v>
       </c>
     </row>
     <row r="16">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.78507349770626</v>
+        <v>15.78507349770416</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01052846838395511</v>
+        <v>0.01052846838396593</v>
       </c>
     </row>
     <row r="17">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1961.684084840341</v>
+        <v>-19.61684084840405</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07133535208320499</v>
+        <v>0.07133535208319508</v>
       </c>
     </row>
   </sheetData>
@@ -2174,10 +2174,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8823.490260310838</v>
+        <v>8823.490261183691</v>
       </c>
       <c r="C2" t="n">
-        <v>1.497573216097039e-17</v>
+        <v>1.497573207387593e-17</v>
       </c>
     </row>
     <row r="3">
@@ -2187,10 +2187,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2047.327086583578</v>
+        <v>-2047.327086610292</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009492069968629014</v>
+        <v>0.009492069968633091</v>
       </c>
     </row>
     <row r="4">
@@ -2200,10 +2200,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-498.252552821993</v>
+        <v>-498.2525528938098</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3961843121271486</v>
+        <v>0.3961843120609524</v>
       </c>
     </row>
     <row r="5">
@@ -2213,10 +2213,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>679.169785774333</v>
+        <v>679.1697858493493</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003517707837429955</v>
+        <v>0.003517707832916343</v>
       </c>
     </row>
     <row r="6">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-117.6277450985474</v>
+        <v>-117.62774510796</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6544960912193227</v>
+        <v>0.6544960911935621</v>
       </c>
     </row>
     <row r="7">
@@ -2239,10 +2239,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-39.39306353819381</v>
+        <v>-39.39306349549497</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8923888957112536</v>
+        <v>0.8923888958271382</v>
       </c>
     </row>
     <row r="8">
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-246.3305212612373</v>
+        <v>-246.3305212576929</v>
       </c>
       <c r="C8" t="n">
-        <v>0.360131487209787</v>
+        <v>0.360131487216699</v>
       </c>
     </row>
     <row r="9">
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22.849714528914</v>
+        <v>22.84971450370435</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7917179693249146</v>
+        <v>0.791717969548732</v>
       </c>
     </row>
     <row r="10">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2126.016548450409</v>
+        <v>-2126.016548445218</v>
       </c>
       <c r="C10" t="n">
-        <v>5.918991465764062e-27</v>
+        <v>5.918991467433808e-27</v>
       </c>
     </row>
     <row r="11">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-46.16804417966387</v>
+        <v>-46.16804418189466</v>
       </c>
       <c r="C11" t="n">
-        <v>3.168698167709844e-07</v>
+        <v>3.168698163898213e-07</v>
       </c>
     </row>
     <row r="12">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>241.5694187101668</v>
+        <v>241.5694188428981</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001702341152238594</v>
+        <v>0.001702341142419666</v>
       </c>
     </row>
     <row r="13">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>470.1376070295964</v>
+        <v>470.1376070068072</v>
       </c>
       <c r="C13" t="n">
-        <v>3.201887599317495e-24</v>
+        <v>3.201887614850702e-24</v>
       </c>
     </row>
     <row r="14">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1167009130122578</v>
+        <v>11.67009129143214</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001224825165759694</v>
+        <v>0.001224825177422306</v>
       </c>
     </row>
     <row r="15">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.599619674737103e-05</v>
+        <v>-25.99619654634068</v>
       </c>
       <c r="C15" t="n">
-        <v>0.630160650810254</v>
+        <v>0.630160653413026</v>
       </c>
     </row>
     <row r="16">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.18269278047023</v>
+        <v>10.18269278046898</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09359760778376661</v>
+        <v>0.09359760778380813</v>
       </c>
     </row>
     <row r="17">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1847.572348019525</v>
+        <v>-18.47572348019629</v>
       </c>
       <c r="C17" t="n">
-        <v>0.08715834611005605</v>
+        <v>0.08715834611003723</v>
       </c>
     </row>
   </sheetData>
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8018.053541285565</v>
+        <v>8018.053542251296</v>
       </c>
       <c r="C2" t="n">
-        <v>1.013534422799685e-14</v>
+        <v>1.013534417668942e-14</v>
       </c>
     </row>
     <row r="3">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1143.999126229392</v>
+        <v>-1143.999126396385</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1594424001053975</v>
+        <v>0.1594424001055973</v>
       </c>
     </row>
     <row r="4">
@@ -2444,10 +2444,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-535.3695159215154</v>
+        <v>-535.3695159237159</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3643594024634107</v>
+        <v>0.3643594024616134</v>
       </c>
     </row>
     <row r="5">
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>666.3968910393471</v>
+        <v>666.3968910210997</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004336082561540416</v>
+        <v>0.004336082563052019</v>
       </c>
     </row>
     <row r="6">
@@ -2470,10 +2470,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.53365703520177</v>
+        <v>28.5336570473853</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9135843257154861</v>
+        <v>0.9135843256786733</v>
       </c>
     </row>
     <row r="7">
@@ -2483,10 +2483,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-39.25841339399426</v>
+        <v>-39.25841337304917</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8937917594193512</v>
+        <v>0.8937917594756009</v>
       </c>
     </row>
     <row r="8">
@@ -2496,10 +2496,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-54.22965566149054</v>
+        <v>-54.22965565759506</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8408979689331935</v>
+        <v>0.8408979689444838</v>
       </c>
     </row>
     <row r="9">
@@ -2509,10 +2509,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>113.4989691618317</v>
+        <v>113.4989691788566</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1908848261431906</v>
+        <v>0.1908848260786112</v>
       </c>
     </row>
     <row r="10">
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2248.399436342238</v>
+        <v>-2248.399436340621</v>
       </c>
       <c r="C10" t="n">
-        <v>9.50164682467274e-30</v>
+        <v>9.501646825556738e-30</v>
       </c>
     </row>
     <row r="11">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-39.9169382672665</v>
+        <v>-39.91693826317086</v>
       </c>
       <c r="C11" t="n">
-        <v>1.233936515285245e-05</v>
+        <v>1.233936517489289e-05</v>
       </c>
     </row>
     <row r="12">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>186.8890308201601</v>
+        <v>186.8890308211026</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01535639253166817</v>
+        <v>0.0153563925311641</v>
       </c>
     </row>
     <row r="13">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>448.5124522299445</v>
+        <v>448.5124522043452</v>
       </c>
       <c r="C13" t="n">
-        <v>6.319182430197074e-22</v>
+        <v>6.319182459595236e-22</v>
       </c>
     </row>
     <row r="14">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.09431479272294829</v>
+        <v>9.431479265140062</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00918033157681223</v>
+        <v>0.009180331629802302</v>
       </c>
     </row>
     <row r="15">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.771294077996792e-05</v>
+        <v>-27.71294069226576</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6081834648823772</v>
+        <v>0.6081834660053622</v>
       </c>
     </row>
     <row r="16">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.69291334826062</v>
+        <v>15.69291334825883</v>
       </c>
       <c r="C16" t="n">
-        <v>0.009955556072749859</v>
+        <v>0.009955556072758786</v>
       </c>
     </row>
     <row r="17">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1469.483354222944</v>
+        <v>-14.69483354223051</v>
       </c>
       <c r="C17" t="n">
-        <v>0.17276659713739</v>
+        <v>0.1727665971373581</v>
       </c>
     </row>
   </sheetData>
